--- a/source/Solution/Server/Engine/Data/Items.xlsx
+++ b/source/Solution/Server/Engine/Data/Items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="510">
   <si>
     <t>Item_ID</t>
   </si>
@@ -1542,6 +1542,9 @@
   </si>
   <si>
     <t>DiffNumbers</t>
+  </si>
+  <si>
+    <t>C#</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1619,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1650,6 +1653,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1657,13 +1675,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1689,8 +1711,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O261" totalsRowShown="0">
-  <autoFilter ref="A1:O261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P261" totalsRowShown="0">
+  <autoFilter ref="A1:P261">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
     <filterColumn colId="9"/>
@@ -1699,11 +1726,12 @@
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
+    <filterColumn colId="15"/>
   </autoFilter>
   <sortState ref="A2:N261">
     <sortCondition ref="A1:A261"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="16">
     <tableColumn id="1" name="Block_Decimal_ID"/>
     <tableColumn id="2" name="Code"/>
     <tableColumn id="3" name="Name"/>
@@ -1714,23 +1742,26 @@
       <calculatedColumnFormula>IFERROR(INDEX(DBData!$A:$G, MATCH(A2, DBData!$G:$G, 0), MATCH("Item_ID", DBData!$1:$1, 0)), "new")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Classification"/>
-    <tableColumn id="11" name="Type" dataDxfId="6"/>
-    <tableColumn id="12" name="New" dataDxfId="5">
+    <tableColumn id="11" name="Type" dataDxfId="7"/>
+    <tableColumn id="12" name="New" dataDxfId="6">
       <calculatedColumnFormula>G2="new"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="DiffRank" dataDxfId="4" dataCellStyle="Bad">
+    <tableColumn id="14" name="DiffRank" dataDxfId="5" dataCellStyle="Bad">
       <calculatedColumnFormula>IFERROR(INDEX(DBData!$A:$G, MATCH($A2, DBData!$G:$G, 0), MATCH("Min_Rank_ID", DBData!$1:$1, 0)), 0) &lt;&gt; F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DiffText" dataDxfId="3" dataCellStyle="Bad">
+    <tableColumn id="15" name="DiffText" dataDxfId="4" dataCellStyle="Bad">
       <calculatedColumnFormula>CONCATENATE(IFERROR(INDEX(DBData!$A:$G, MATCH($A2, DBData!$G:$G, 0), MATCH("Code", DBData!$1:$1, 0)), ""), IFERROR(INDEX(DBData!$A:$G, MATCH($A2, DBData!$G:$G, 0), MATCH("Name", DBData!$1:$1, 0)), "")) &lt;&gt; CONCATENATE(B2,C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="DiffNumbers" dataDxfId="0" dataCellStyle="Good">
+    <tableColumn id="8" name="DiffNumbers" dataDxfId="2" dataCellStyle="Good">
       <calculatedColumnFormula>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="InsertCommand" dataDxfId="2">
+    <tableColumn id="9" name="C#" dataDxfId="0" dataCellStyle="Good">
+      <calculatedColumnFormula>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="InsertCommand" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B2, "', '", C2, "', ", D2, ", ", E2, ", ", F2, ", ", A2, ");")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="UpdateCommand" dataDxfId="1">
+    <tableColumn id="16" name="UpdateCommand" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2023,11 +2054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O261"/>
+  <dimension ref="A1:P261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2045,11 +2076,12 @@
     <col min="11" max="11" width="17.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="76.28515625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2089,14 +2121,17 @@
       <c r="M1" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="O1" t="s">
         <v>500</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -2141,16 +2176,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N2" s="13" t="str">
-        <f t="shared" ref="N2:N65" si="1">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B2, "', '", C2, "', ", D2, ", ", E2, ", ", F2, ", ", A2, ");")</f>
+      <c r="N2" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(0, "air", "Air", 1, 64, 6);</v>
+      </c>
+      <c r="O2" s="13" t="str">
+        <f t="shared" ref="O2:O65" si="1">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B2, "', '", C2, "', ", D2, ", ", E2, ", ", F2, ", ", A2, ");")</f>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('air', 'Air', 1, 64, 6, 0);</v>
       </c>
-      <c r="O2" s="13" t="str">
+      <c r="P2" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='air', [Name]='Air', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 315;</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2193,16 +2232,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N3" s="11" t="str">
+      <c r="N3" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(1, "stone", "Stone", 64, 256, 4);</v>
+      </c>
+      <c r="O3" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stone', 'Stone', 64, 256, 4, 1);</v>
       </c>
-      <c r="O3" s="11" t="str">
+      <c r="P3" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stone', [Name]='Stone', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 157;</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2247,16 +2290,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N4" s="11" t="str">
+      <c r="N4" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2, "grass", "Grass", 64, 256, 4);</v>
+      </c>
+      <c r="O4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('grass', 'Grass', 64, 256, 4, 2);</v>
       </c>
-      <c r="O4" s="11" t="str">
+      <c r="P4" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='grass', [Name]='Grass', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 313;</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2299,16 +2346,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N5" s="11" t="str">
+      <c r="N5" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(3, "dirt", "Dirt", 64, 256, 4);</v>
+      </c>
+      <c r="O5" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('dirt', 'Dirt', 64, 256, 4, 3);</v>
       </c>
-      <c r="O5" s="11" t="str">
+      <c r="P5" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='dirt', [Name]='Dirt', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 158;</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2351,16 +2402,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N6" s="11" t="str">
+      <c r="N6" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(4, "cobblestone", "Cobblestone", 64, 256, 4);</v>
+      </c>
+      <c r="O6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cobblestone', 'Cobblestone', 64, 256, 4, 4);</v>
       </c>
-      <c r="O6" s="11" t="str">
+      <c r="P6" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cobblestone', [Name]='Cobblestone', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 159;</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2403,16 +2458,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(5, "woodenplank", "Wooden Plank", 64, 256, 4);</v>
+      </c>
+      <c r="O7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodenplank', 'Wooden Plank', 64, 256, 4, 5);</v>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="P7" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodenplank', [Name]='Wooden Plank', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 160;</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2453,16 +2512,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>1</v>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="N8" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(6, "sapling", "Sapling", 64, 256, 4);</v>
+      </c>
+      <c r="O8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sapling', 'Sapling', 64, 256, 4, 6);</v>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="P8" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sapling', [Name]='Sapling', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 161;</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2507,16 +2570,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N9" s="13" t="str">
+      <c r="N9" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(7, "bedrock", "bedrock", 1, 64, 6);</v>
+      </c>
+      <c r="O9" s="13" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bedrock', 'bedrock', 1, 64, 6, 7);</v>
       </c>
-      <c r="O9" s="13" t="str">
+      <c r="P9" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bedrock', [Name]='bedrock', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 317;</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -2561,16 +2628,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N10" s="15" t="str">
+      <c r="N10" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(8, "water", "Water", 1, 64, 5);</v>
+      </c>
+      <c r="O10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('water', 'Water', 1, 64, 5, 8);</v>
       </c>
-      <c r="O10" s="15" t="str">
+      <c r="P10" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='water', [Name]='Water', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 318;</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -2615,16 +2686,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N11" s="15" t="str">
+      <c r="N11" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(9, "stationarywater", "Stationary Water", 1, 64, 5);</v>
+      </c>
+      <c r="O11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stationarywater', 'Stationary Water', 1, 64, 5, 9);</v>
       </c>
-      <c r="O11" s="15" t="str">
+      <c r="P11" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stationarywater', [Name]='Stationary Water', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 319;</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -2669,16 +2744,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N12" s="15" t="str">
+      <c r="N12" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(10, "lava", "Lava", 1, 64, 5);</v>
+      </c>
+      <c r="O12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('lava', 'Lava', 1, 64, 5, 10);</v>
       </c>
-      <c r="O12" s="15" t="str">
+      <c r="P12" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='lava', [Name]='Lava', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 320;</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -2723,16 +2802,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N13" s="15" t="str">
+      <c r="N13" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(11, "stationarylava", "Stationary Lava", 1, 64, 5);</v>
+      </c>
+      <c r="O13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stationarylava', 'Stationary Lava', 1, 64, 5, 11);</v>
       </c>
-      <c r="O13" s="15" t="str">
+      <c r="P13" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stationarylava', [Name]='Stationary Lava', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 321;</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2775,16 +2858,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="N14" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(12, "sand", "Sand", 64, 256, 4);</v>
+      </c>
+      <c r="O14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sand', 'Sand', 64, 256, 4, 12);</v>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="P14" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sand', [Name]='Sand', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 162;</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2827,16 +2914,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N15" s="11" t="str">
+      <c r="N15" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(13, "gravel", "Gravel", 64, 256, 4);</v>
+      </c>
+      <c r="O15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('gravel', 'Gravel', 64, 256, 4, 13);</v>
       </c>
-      <c r="O15" s="11" t="str">
+      <c r="P15" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='gravel', [Name]='Gravel', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 163;</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -2881,16 +2972,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N16" s="15" t="str">
+      <c r="N16" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(14, "goldore", "Gold (Ore)", 64, 256, 5);</v>
+      </c>
+      <c r="O16" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldore', 'Gold (Ore)', 64, 256, 5, 14);</v>
       </c>
-      <c r="O16" s="15" t="str">
+      <c r="P16" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldore', [Name]='Gold (Ore)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 164;</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -2935,16 +3030,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N17" s="15" t="str">
+      <c r="N17" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(15, "ironore", "Iron (Ore)", 64, 256, 5);</v>
+      </c>
+      <c r="O17" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironore', 'Iron (Ore)', 64, 256, 5, 15);</v>
       </c>
-      <c r="O17" s="15" t="str">
+      <c r="P17" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironore', [Name]='Iron (Ore)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 165;</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -2989,16 +3088,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N18" s="15" t="str">
+      <c r="N18" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(16, "coalore", "Coal (Ore)", 1, 64, 5);</v>
+      </c>
+      <c r="O18" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('coalore', 'Coal (Ore)', 1, 64, 5, 16);</v>
       </c>
-      <c r="O18" s="15" t="str">
+      <c r="P18" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='coalore', [Name]='Coal (Ore)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 322;</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3041,16 +3144,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="N19" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(17, "wood", "Wood", 64, 256, 4);</v>
+      </c>
+      <c r="O19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('wood', 'Wood', 64, 256, 4, 17);</v>
       </c>
-      <c r="O19" s="11" t="str">
+      <c r="P19" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='wood', [Name]='Wood', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 166;</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -3095,16 +3202,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N20" s="15" t="str">
+      <c r="N20" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(18, "leaves", "Leaves", 1, 64, 5);</v>
+      </c>
+      <c r="O20" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('leaves', 'Leaves', 1, 64, 5, 18);</v>
       </c>
-      <c r="O20" s="15" t="str">
+      <c r="P20" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='leaves', [Name]='Leaves', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 323;</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -3149,16 +3260,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N21" s="15" t="str">
+      <c r="N21" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(19, "sponge", "Sponge", 64, 256, 5);</v>
+      </c>
+      <c r="O21" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sponge', 'Sponge', 64, 256, 5, 19);</v>
       </c>
-      <c r="O21" s="15" t="str">
+      <c r="P21" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sponge', [Name]='Sponge', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 324;</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3201,16 +3316,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N22" s="11" t="str">
+      <c r="N22" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(20, "glass", "Glass", 64, 256, 4);</v>
+      </c>
+      <c r="O22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('glass', 'Glass', 64, 256, 4, 20);</v>
       </c>
-      <c r="O22" s="11" t="str">
+      <c r="P22" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='glass', [Name]='Glass', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 167;</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -3255,16 +3374,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N23" s="15" t="str">
+      <c r="N23" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(21, "lapislazuliore", "Lapis Lazuli (Ore)", 1, 64, 5);</v>
+      </c>
+      <c r="O23" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('lapislazuliore', 'Lapis Lazuli (Ore)', 1, 64, 5, 21);</v>
       </c>
-      <c r="O23" s="15" t="str">
+      <c r="P23" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='lapislazuliore', [Name]='Lapis Lazuli (Ore)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 325;</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -3307,16 +3430,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N24" s="15" t="str">
+      <c r="N24" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(22, "lapislazuliblock", "Lapis Lazuli (Block)", 64, 256, 5);</v>
+      </c>
+      <c r="O24" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('lapislazuliblock', 'Lapis Lazuli (Block)', 64, 256, 5, 22);</v>
       </c>
-      <c r="O24" s="15" t="str">
+      <c r="P24" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='lapislazuliblock', [Name]='Lapis Lazuli (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 168;</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16" hidden="1">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3355,16 +3482,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N25" s="1" t="str">
+      <c r="N25" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(23, "dispenser", "Dispenser", 1, 64, );</v>
+      </c>
+      <c r="O25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('dispenser', 'Dispenser', 1, 64, , 23);</v>
       </c>
-      <c r="O25" s="1" t="str">
+      <c r="P25" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='dispenser', [Name]='Dispenser', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 169;</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3407,16 +3538,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N26" s="11" t="str">
+      <c r="N26" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(24, "sandstone", "Sandstone", 64, 256, 4);</v>
+      </c>
+      <c r="O26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sandstone', 'Sandstone', 64, 256, 4, 24);</v>
       </c>
-      <c r="O26" s="11" t="str">
+      <c r="P26" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sandstone', [Name]='Sandstone', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 170;</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16" hidden="1">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3455,16 +3590,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N27" s="1" t="str">
+      <c r="N27" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(25, "noteblock", "Note Block", 64, 256, );</v>
+      </c>
+      <c r="O27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('noteblock', 'Note Block', 64, 256, , 25);</v>
       </c>
-      <c r="O27" s="1" t="str">
+      <c r="P27" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='noteblock', [Name]='Note Block', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]= WHERE Item_ID = 171;</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3509,16 +3648,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N28" s="13" t="str">
+      <c r="N28" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(26, "bedblock", "Bed (Block)", 1, 64, 6);</v>
+      </c>
+      <c r="O28" s="13" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bedblock', 'Bed (Block)', 1, 64, 6, 26);</v>
       </c>
-      <c r="O28" s="13" t="str">
+      <c r="P28" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bedblock', [Name]='Bed (Block)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 316;</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3559,16 +3702,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N29" s="11" t="str">
+      <c r="N29" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(27, "poweredrail", "Powered Rail", 64, 256, 4);</v>
+      </c>
+      <c r="O29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('poweredrail', 'Powered Rail', 64, 256, 4, 27);</v>
       </c>
-      <c r="O29" s="11" t="str">
+      <c r="P29" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='poweredrail', [Name]='Powered Rail', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 368;</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3609,16 +3756,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N30" s="11" t="str">
+      <c r="N30" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(28, "detectorrail", "Detector Rail", 64, 256, 4);</v>
+      </c>
+      <c r="O30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('detectorrail', 'Detector Rail', 64, 256, 4, 28);</v>
       </c>
-      <c r="O30" s="11" t="str">
+      <c r="P30" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='detectorrail', [Name]='Detector Rail', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 359;</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3661,16 +3812,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N31" s="11" t="str">
+      <c r="N31" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(29, "stickypiston", "Sticky Piston", 64, 256, 4);</v>
+      </c>
+      <c r="O31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stickypiston', 'Sticky Piston', 64, 256, 4, 29);</v>
       </c>
-      <c r="O31" s="11" t="str">
+      <c r="P31" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stickypiston', [Name]='Sticky Piston', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 372;</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3713,16 +3868,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N32" s="11" t="str">
+      <c r="N32" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(30, "cobweb", "Cobweb", 64, 256, 4);</v>
+      </c>
+      <c r="O32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cobweb', 'Cobweb', 64, 256, 4, 30);</v>
       </c>
-      <c r="O32" s="11" t="str">
+      <c r="P32" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cobweb', [Name]='Cobweb', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 357;</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -3763,16 +3922,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N33" s="15" t="str">
+      <c r="N33" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(31, "tallgrass", "Tall Grass", 64, 256, 5);</v>
+      </c>
+      <c r="O33" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('tallgrass', 'Tall Grass', 64, 256, 5, 31);</v>
       </c>
-      <c r="O33" s="15" t="str">
+      <c r="P33" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='tallgrass', [Name]='Tall Grass', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 380;</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -3815,16 +3978,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N34" s="15" t="str">
+      <c r="N34" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(32, "deadbush", "Dead Bush", 64, 256, 5);</v>
+      </c>
+      <c r="O34" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('deadbush', 'Dead Bush', 64, 256, 5, 32);</v>
       </c>
-      <c r="O34" s="15" t="str">
+      <c r="P34" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='deadbush', [Name]='Dead Bush', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 374;</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -3867,16 +4034,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="str">
+      <c r="N35" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(33, "piston", "Piston", 64, 256, 4);</v>
+      </c>
+      <c r="O35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('piston', 'Piston', 64, 256, 4, 33);</v>
       </c>
-      <c r="O35" s="11" t="str">
+      <c r="P35" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='piston', [Name]='Piston', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 367;</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -3919,16 +4090,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N36" s="13" t="str">
+      <c r="N36" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(34, "pistonextension", "Piston Extension", 1, 1, 6);</v>
+      </c>
+      <c r="O36" s="13" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('pistonextension', 'Piston Extension', 1, 1, 6, 34);</v>
       </c>
-      <c r="O36" s="13" t="str">
+      <c r="P36" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='pistonextension', [Name]='Piston Extension', [Stack_Size]=1, [Max]=1, [Min_Rank_ID]=6 WHERE Item_ID = 389;</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -3971,16 +4146,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N37" s="11" t="str">
+      <c r="N37" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(35, "wool", "Wool", 64, 256, 4);</v>
+      </c>
+      <c r="O37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('wool', 'Wool', 64, 256, 4, 35);</v>
       </c>
-      <c r="O37" s="11" t="str">
+      <c r="P37" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='wool', [Name]='Wool', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 172;</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -4025,16 +4204,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N38" s="13" t="str">
+      <c r="N38" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(36, "blockmovedbypiston", "Block Moved By Piston", 1, 1, 6);</v>
+      </c>
+      <c r="O38" s="13" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('blockmovedbypiston', 'Block Moved By Piston', 1, 1, 6, 36);</v>
       </c>
-      <c r="O38" s="13" t="str">
+      <c r="P38" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='blockmovedbypiston', [Name]='Block Moved By Piston', [Stack_Size]=1, [Max]=1, [Min_Rank_ID]=6 WHERE Item_ID = 382;</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4075,16 +4258,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N39" s="11" t="str">
+      <c r="N39" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(37, "dandelion", "Dandelion", 1, 64, 4);</v>
+      </c>
+      <c r="O39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('dandelion', 'Dandelion', 1, 64, 4, 37);</v>
       </c>
-      <c r="O39" s="11" t="str">
+      <c r="P39" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='dandelion', [Name]='Dandelion', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 173;</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4125,16 +4312,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N40" s="11" t="str">
+      <c r="N40" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(38, "rose", "Rose", 1, 64, 4);</v>
+      </c>
+      <c r="O40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('rose', 'Rose', 1, 64, 4, 38);</v>
       </c>
-      <c r="O40" s="11" t="str">
+      <c r="P40" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='rose', [Name]='Rose', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 174;</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4175,16 +4366,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N41" s="11" t="str">
+      <c r="N41" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(39, "brownmushroom", "Brown Mushroom", 1, 64, 4);</v>
+      </c>
+      <c r="O41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('brownmushroom', 'Brown Mushroom', 1, 64, 4, 39);</v>
       </c>
-      <c r="O41" s="11" t="str">
+      <c r="P41" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='brownmushroom', [Name]='Brown Mushroom', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 175;</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4225,16 +4420,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N42" s="11" t="str">
+      <c r="N42" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(40, "redmushroom", "Red Mushroom", 1, 64, 4);</v>
+      </c>
+      <c r="O42" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redmushroom', 'Red Mushroom', 1, 64, 4, 40);</v>
       </c>
-      <c r="O42" s="11" t="str">
+      <c r="P42" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redmushroom', [Name]='Red Mushroom', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 176;</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -4277,16 +4476,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N43" s="15" t="str">
+      <c r="N43" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(41, "goldblock", "Gold (Block)", 64, 256, 5);</v>
+      </c>
+      <c r="O43" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldblock', 'Gold (Block)', 64, 256, 5, 41);</v>
       </c>
-      <c r="O43" s="15" t="str">
+      <c r="P43" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldblock', [Name]='Gold (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 177;</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -4331,16 +4534,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N44" s="15" t="str">
+      <c r="N44" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(42, "ironblock", "Iron (Block)", 64, 256, 5);</v>
+      </c>
+      <c r="O44" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironblock', 'Iron (Block)', 64, 256, 5, 42);</v>
       </c>
-      <c r="O44" s="15" t="str">
+      <c r="P44" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironblock', [Name]='Iron (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 178;</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4383,16 +4590,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="str">
+      <c r="N45" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(43, "doubleslab", "Double Slab", 64, 256, 4);</v>
+      </c>
+      <c r="O45" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('doubleslab', 'Double Slab', 64, 256, 4, 43);</v>
       </c>
-      <c r="O45" s="11" t="str">
+      <c r="P45" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='doubleslab', [Name]='Double Slab', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 360;</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -4435,16 +4646,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="str">
+      <c r="N46" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(44, "slab", "Slab", 64, 256, 4);</v>
+      </c>
+      <c r="O46" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('slab', 'Slab', 64, 256, 4, 44);</v>
       </c>
-      <c r="O46" s="11" t="str">
+      <c r="P46" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='slab', [Name]='Slab', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 179;</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -4487,16 +4702,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N47" s="11" t="str">
+      <c r="N47" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(45, "brickblock", "Brick (Block)", 64, 256, 4);</v>
+      </c>
+      <c r="O47" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('brickblock', 'Brick (Block)', 64, 256, 4, 45);</v>
       </c>
-      <c r="O47" s="11" t="str">
+      <c r="P47" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='brickblock', [Name]='Brick (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 180;</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" s="7">
         <v>46</v>
       </c>
@@ -4541,16 +4760,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N48" s="15" t="str">
+      <c r="N48" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(46, "tnt", "TNT", 0, 0, 5);</v>
+      </c>
+      <c r="O48" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('tnt', 'TNT', 0, 0, 5, 46);</v>
       </c>
-      <c r="O48" s="15" t="str">
+      <c r="P48" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='tnt', [Name]='TNT', [Stack_Size]=0, [Max]=0, [Min_Rank_ID]=5 WHERE Item_ID = 181;</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16" hidden="1">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4589,16 +4812,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N49" s="1" t="str">
+      <c r="N49" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(47, "bookshelf", "Bookshelf", 1, 64, );</v>
+      </c>
+      <c r="O49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bookshelf', 'Bookshelf', 1, 64, , 47);</v>
       </c>
-      <c r="O49" s="1" t="str">
+      <c r="P49" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bookshelf', [Name]='Bookshelf', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 182;</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:16" hidden="1">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4637,16 +4864,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N50" s="1" t="str">
+      <c r="N50" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(48, "mossstone", "Moss Stone", 64, 256, );</v>
+      </c>
+      <c r="O50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('mossstone', 'Moss Stone', 64, 256, , 48);</v>
       </c>
-      <c r="O50" s="1" t="str">
+      <c r="P50" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='mossstone', [Name]='Moss Stone', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]= WHERE Item_ID = 183;</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:16">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -4689,16 +4920,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N51" s="11" t="str">
+      <c r="N51" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(49, "obsidian", "Obsidian", 64, 256, 4);</v>
+      </c>
+      <c r="O51" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('obsidian', 'Obsidian', 64, 256, 4, 49);</v>
       </c>
-      <c r="O51" s="11" t="str">
+      <c r="P51" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='obsidian', [Name]='Obsidian', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 184;</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:16">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -4739,16 +4974,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N52" s="11" t="str">
+      <c r="N52" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(50, "torch", "Torch", 64, 256, 4);</v>
+      </c>
+      <c r="O52" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('torch', 'Torch', 64, 256, 4, 50);</v>
       </c>
-      <c r="O52" s="11" t="str">
+      <c r="P52" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='torch', [Name]='Torch', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 185;</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:16">
       <c r="A53" s="7">
         <v>51</v>
       </c>
@@ -4791,16 +5030,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N53" s="15" t="str">
+      <c r="N53" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(51, "fire", "Fire", 1, 64, 5);</v>
+      </c>
+      <c r="O53" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('fire', 'Fire', 1, 64, 5, 51);</v>
       </c>
-      <c r="O53" s="15" t="str">
+      <c r="P53" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='fire', [Name]='Fire', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 376;</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:16">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -4845,16 +5088,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N54" s="15" t="str">
+      <c r="N54" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(52, "monsterspawner", "Monster Spawner", 1, 64, 5);</v>
+      </c>
+      <c r="O54" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('monsterspawner', 'Monster Spawner', 1, 64, 5, 52);</v>
       </c>
-      <c r="O54" s="15" t="str">
+      <c r="P54" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='monsterspawner', [Name]='Monster Spawner', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 326;</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:16">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -4897,16 +5144,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N55" s="11" t="str">
+      <c r="N55" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(53, "woodenstairs", "Wooden Stairs", 64, 256, 4);</v>
+      </c>
+      <c r="O55" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodenstairs', 'Wooden Stairs', 64, 256, 4, 53);</v>
       </c>
-      <c r="O55" s="11" t="str">
+      <c r="P55" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodenstairs', [Name]='Wooden Stairs', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 186;</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:16">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -4949,16 +5200,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N56" s="11" t="str">
+      <c r="N56" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(54, "chest", "Chest", 1, 64, 4);</v>
+      </c>
+      <c r="O56" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('chest', 'Chest', 1, 64, 4, 54);</v>
       </c>
-      <c r="O56" s="11" t="str">
+      <c r="P56" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='chest', [Name]='Chest', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 187;</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" s="5">
         <v>55</v>
       </c>
@@ -5001,16 +5256,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N57" s="13" t="str">
+      <c r="N57" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(55, "redstonewire", "Redstone Wire", 1, 64, 6);</v>
+      </c>
+      <c r="O57" s="13" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstonewire', 'Redstone Wire', 1, 64, 6, 55);</v>
       </c>
-      <c r="O57" s="13" t="str">
+      <c r="P57" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstonewire', [Name]='Redstone Wire', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 393;</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -5055,16 +5314,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N58" s="15" t="str">
+      <c r="N58" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(56, "diamondore", "Diamond (Ore)", 1, 64, 5);</v>
+      </c>
+      <c r="O58" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondore', 'Diamond (Ore)', 1, 64, 5, 56);</v>
       </c>
-      <c r="O58" s="15" t="str">
+      <c r="P58" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondore', [Name]='Diamond (Ore)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 327;</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" s="7">
         <v>57</v>
       </c>
@@ -5107,16 +5370,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N59" s="15" t="str">
+      <c r="N59" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(57, "diamondblock", "Diamond (Block)", 64, 256, 5);</v>
+      </c>
+      <c r="O59" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondblock', 'Diamond (Block)', 64, 256, 5, 57);</v>
       </c>
-      <c r="O59" s="15" t="str">
+      <c r="P59" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondblock', [Name]='Diamond (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 188;</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -5159,16 +5426,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N60" s="11" t="str">
+      <c r="N60" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(58, "craftingtable", "Crafting Table", 1, 64, 4);</v>
+      </c>
+      <c r="O60" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('craftingtable', 'Crafting Table', 1, 64, 4, 58);</v>
       </c>
-      <c r="O60" s="11" t="str">
+      <c r="P60" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='craftingtable', [Name]='Crafting Table', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 189;</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -5211,16 +5482,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N61" s="15" t="str">
+      <c r="N61" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(59, "seedblock", "Seeds (Block)", 1, 64, 5);</v>
+      </c>
+      <c r="O61" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('seedblock', 'Seeds (Block)', 1, 64, 5, 59);</v>
       </c>
-      <c r="O61" s="15" t="str">
+      <c r="P61" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='seedblock', [Name]='Seeds (Block)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 328;</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -5265,16 +5540,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N62" s="15" t="str">
+      <c r="N62" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(60, "farmland", "Farmland", 1, 64, 5);</v>
+      </c>
+      <c r="O62" s="15" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('farmland', 'Farmland', 1, 64, 5, 60);</v>
       </c>
-      <c r="O62" s="15" t="str">
+      <c r="P62" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='farmland', [Name]='Farmland', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 375;</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -5317,16 +5596,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N63" s="11" t="str">
+      <c r="N63" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(61, "furnace", "Furnace", 1, 64, 4);</v>
+      </c>
+      <c r="O63" s="11" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('furnace', 'Furnace', 1, 64, 4, 61);</v>
       </c>
-      <c r="O63" s="11" t="str">
+      <c r="P63" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='furnace', [Name]='Furnace', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 190;</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="5">
         <v>62</v>
       </c>
@@ -5371,16 +5654,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N64" s="13" t="str">
+      <c r="N64" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(62, "burningfurnace", "Burning Furnace", 1, 64, 6);</v>
+      </c>
+      <c r="O64" s="13" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('burningfurnace', 'Burning Furnace', 1, 64, 6, 62);</v>
       </c>
-      <c r="O64" s="13" t="str">
+      <c r="P64" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='burningfurnace', [Name]='Burning Furnace', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 383;</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:16">
       <c r="A65" s="5">
         <v>63</v>
       </c>
@@ -5423,16 +5710,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N65" s="13" t="str">
+      <c r="N65" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(63, "signblock", "Sign (Block)", 1, 64, 6);</v>
+      </c>
+      <c r="O65" s="13" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('signblock', 'Sign (Block)', 1, 64, 6, 63);</v>
       </c>
-      <c r="O65" s="13" t="str">
+      <c r="P65" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='signblock', [Name]='Sign (Block)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 330;</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:16">
       <c r="A66" s="5">
         <v>64</v>
       </c>
@@ -5475,16 +5766,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N66" s="13" t="str">
-        <f t="shared" ref="N66:N129" si="3">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B66, "', '", C66, "', ", D66, ", ", E66, ", ", F66, ", ", A66, ");")</f>
+      <c r="N66" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(64, "woodendoorblock", "Wooden Door (Block)", 1, 64, 6);</v>
+      </c>
+      <c r="O66" s="13" t="str">
+        <f t="shared" ref="O66:O129" si="3">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B66, "', '", C66, "', ", D66, ", ", E66, ", ", F66, ", ", A66, ");")</f>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodendoorblock', 'Wooden Door (Block)', 1, 64, 6, 64);</v>
       </c>
-      <c r="O66" s="13" t="str">
+      <c r="P66" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodendoorblock', [Name]='Wooden Door (Block)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 331;</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:16">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -5525,16 +5820,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N67" s="11" t="str">
+      <c r="N67" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(65, "ladder", "Ladder", 64, 256, 4);</v>
+      </c>
+      <c r="O67" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ladder', 'Ladder', 64, 256, 4, 65);</v>
       </c>
-      <c r="O67" s="11" t="str">
+      <c r="P67" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ladder', [Name]='Ladder', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 191;</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:16">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -5575,16 +5874,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N68" s="11" t="str">
+      <c r="N68" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(66, "rails", "Rails", 64, 256, 4);</v>
+      </c>
+      <c r="O68" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('rails', 'Rails', 64, 256, 4, 66);</v>
       </c>
-      <c r="O68" s="11" t="str">
+      <c r="P68" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='rails', [Name]='Rails', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 192;</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:16">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -5625,16 +5928,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N69" s="11" t="str">
+      <c r="N69" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(67, "cobblestonestairs", "Cobblestone Stairs", 64, 256, 4);</v>
+      </c>
+      <c r="O69" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cobblestonestairs', 'Cobblestone Stairs', 64, 256, 4, 67);</v>
       </c>
-      <c r="O69" s="11" t="str">
+      <c r="P69" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cobblestonestairs', [Name]='Cobblestone Stairs', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 193;</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:16">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -5677,16 +5984,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N70" s="15" t="str">
+      <c r="N70" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(68, "wallsign", "Sign (Wall)", 1, 64, 5);</v>
+      </c>
+      <c r="O70" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('wallsign', 'Sign (Wall)', 1, 64, 5, 68);</v>
       </c>
-      <c r="O70" s="15" t="str">
+      <c r="P70" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='wallsign', [Name]='Sign (Wall)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 332;</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:16">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -5727,16 +6038,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N71" s="11" t="str">
+      <c r="N71" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(69, "lever", "Lever", 1, 64, 4);</v>
+      </c>
+      <c r="O71" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('lever', 'Lever', 1, 64, 4, 69);</v>
       </c>
-      <c r="O71" s="11" t="str">
+      <c r="P71" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='lever', [Name]='Lever', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 194;</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:16">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -5777,16 +6092,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N72" s="11" t="str">
+      <c r="N72" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(70, "stonepressureplates", "Stone Pressure Plates", 1, 64, 4);</v>
+      </c>
+      <c r="O72" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stonepressureplates', 'Stone Pressure Plates', 1, 64, 4, 70);</v>
       </c>
-      <c r="O72" s="11" t="str">
+      <c r="P72" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stonepressureplates', [Name]='Stone Pressure Plates', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 195;</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:16">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -5829,16 +6148,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N73" s="13" t="str">
+      <c r="N73" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(71, "irondoorblock", "Iron Door (Block)", 1, 64, 6);</v>
+      </c>
+      <c r="O73" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('irondoorblock', 'Iron Door (Block)', 1, 64, 6, 71);</v>
       </c>
-      <c r="O73" s="13" t="str">
+      <c r="P73" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='irondoorblock', [Name]='Iron Door (Block)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 388;</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:16">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -5879,16 +6202,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N74" s="11" t="str">
+      <c r="N74" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(72, "woodenpressureplates", "Wooden Pressure Plates", 1, 64, 4);</v>
+      </c>
+      <c r="O74" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodenpressureplates', 'Wooden Pressure Plates', 1, 64, 4, 72);</v>
       </c>
-      <c r="O74" s="11" t="str">
+      <c r="P74" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodenpressureplates', [Name]='Wooden Pressure Plates', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 196;</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:16">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -5931,16 +6258,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N75" s="15" t="str">
+      <c r="N75" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(73, "redstoneore", "Redstone (Ore)", 1, 64, 5);</v>
+      </c>
+      <c r="O75" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstoneore', 'Redstone (Ore)', 1, 64, 5, 73);</v>
       </c>
-      <c r="O75" s="15" t="str">
+      <c r="P75" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstoneore', [Name]='Redstone (Ore)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 333;</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:16">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -5983,16 +6314,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N76" s="15" t="str">
+      <c r="N76" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(74, "glowingredstoneore", "Redstone (Glowing Ore)", 1, 64, 5);</v>
+      </c>
+      <c r="O76" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('glowingredstoneore', 'Redstone (Glowing Ore)', 1, 64, 5, 74);</v>
       </c>
-      <c r="O76" s="15" t="str">
+      <c r="P76" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='glowingredstoneore', [Name]='Redstone (Glowing Ore)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 334;</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:16">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -6035,16 +6370,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N77" s="13" t="str">
+      <c r="N77" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(75, "redstonetorchoffstate", "Redstone Torch (\"off\" state)", 1, 64, 6);</v>
+      </c>
+      <c r="O77" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstonetorchoffstate', 'Redstone Torch ("off" state)', 1, 64, 6, 75);</v>
       </c>
-      <c r="O77" s="13" t="str">
+      <c r="P77" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstonetorchoffstate', [Name]='Redstone Torch ("off" state)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 392;</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:16">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6085,16 +6424,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N78" s="11" t="str">
+      <c r="N78" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(76, "redstonetorch", "Redstone Torch (\"on\" state)", 64, 256, 4);</v>
+      </c>
+      <c r="O78" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstonetorch', 'Redstone Torch ("on" state)', 64, 256, 4, 76);</v>
       </c>
-      <c r="O78" s="11" t="str">
+      <c r="P78" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstonetorch', [Name]='Redstone Torch ("on" state)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 197;</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:16">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6135,16 +6478,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N79" s="11" t="str">
+      <c r="N79" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(77, "stonebutton", "Stone Button", 1, 64, 4);</v>
+      </c>
+      <c r="O79" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stonebutton', 'Stone Button', 1, 64, 4, 77);</v>
       </c>
-      <c r="O79" s="11" t="str">
+      <c r="P79" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stonebutton', [Name]='Stone Button', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 198;</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:16">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -6187,16 +6534,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N80" s="11" t="str">
+      <c r="N80" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(78, "snow", "Snow", 64, 256, 4);</v>
+      </c>
+      <c r="O80" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('snow', 'Snow', 64, 256, 4, 78);</v>
       </c>
-      <c r="O80" s="11" t="str">
+      <c r="P80" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='snow', [Name]='Snow', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 370;</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:16" hidden="1">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6229,16 +6580,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N81" s="1" t="str">
+      <c r="N81" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(79, "ice", "Ice", , , );</v>
+      </c>
+      <c r="O81" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ice', 'Ice', , , , 79);</v>
       </c>
-      <c r="O81" s="1" t="str">
+      <c r="P81" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ice', [Name]='Ice', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:16">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -6279,16 +6634,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N82" s="15" t="str">
+      <c r="N82" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(80, "snowblock", "Snow (Block)", 64, 256, 5);</v>
+      </c>
+      <c r="O82" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('snowblock', 'Snow (Block)', 64, 256, 5, 80);</v>
       </c>
-      <c r="O82" s="15" t="str">
+      <c r="P82" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='snowblock', [Name]='Snow (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 199;</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:16">
       <c r="A83" s="7">
         <v>81</v>
       </c>
@@ -6329,16 +6688,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N83" s="15" t="str">
+      <c r="N83" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(81, "cactus", "Cactus", 1, 64, 5);</v>
+      </c>
+      <c r="O83" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cactus', 'Cactus', 1, 64, 5, 81);</v>
       </c>
-      <c r="O83" s="15" t="str">
+      <c r="P83" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cactus', [Name]='Cactus', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 200;</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:16">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -6379,16 +6742,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N84" s="11" t="str">
+      <c r="N84" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(82, "clayblock", "Clay (Block)", 64, 256, 4);</v>
+      </c>
+      <c r="O84" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('clayblock', 'Clay (Block)', 64, 256, 4, 82);</v>
       </c>
-      <c r="O84" s="11" t="str">
+      <c r="P84" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='clayblock', [Name]='Clay (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 201;</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:16">
       <c r="A85" s="7">
         <v>83</v>
       </c>
@@ -6431,16 +6798,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N85" s="15" t="str">
+      <c r="N85" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(83, "sugarcaneblock", "Sugarcane (Block)", 64, 256, 5);</v>
+      </c>
+      <c r="O85" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sugarcaneblock', 'Sugarcane (Block)', 64, 256, 5, 83);</v>
       </c>
-      <c r="O85" s="15" t="str">
+      <c r="P85" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sugarcaneblock', [Name]='Sugarcane (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 379;</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:16" hidden="1">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6476,16 +6847,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N86" s="1" t="str">
+      <c r="N86" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(84, "jukebox", "Jukebox", 1, 64, );</v>
+      </c>
+      <c r="O86" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('jukebox', 'Jukebox', 1, 64, , 84);</v>
       </c>
-      <c r="O86" s="1" t="str">
+      <c r="P86" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='jukebox', [Name]='Jukebox', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 202;</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:16">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -6526,16 +6901,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N87" s="11" t="str">
+      <c r="N87" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(85, "fence", "Fence", 64, 256, 4);</v>
+      </c>
+      <c r="O87" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('fence', 'Fence', 64, 256, 4, 85);</v>
       </c>
-      <c r="O87" s="11" t="str">
+      <c r="P87" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='fence', [Name]='Fence', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 203;</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -6576,16 +6955,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N88" s="11" t="str">
+      <c r="N88" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(86, "pumpkin", "Pumpkin", 1, 64, 4);</v>
+      </c>
+      <c r="O88" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('pumpkin', 'Pumpkin', 1, 64, 4, 86);</v>
       </c>
-      <c r="O88" s="11" t="str">
+      <c r="P88" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='pumpkin', [Name]='Pumpkin', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 204;</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:16" hidden="1">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6621,16 +7004,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N89" s="1" t="str">
+      <c r="N89" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(87, "netherrack", "Netherrack", 64, 256, );</v>
+      </c>
+      <c r="O89" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('netherrack', 'Netherrack', 64, 256, , 87);</v>
       </c>
-      <c r="O89" s="1" t="str">
+      <c r="P89" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='netherrack', [Name]='Netherrack', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]= WHERE Item_ID = 205;</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:16" hidden="1">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6666,16 +7053,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N90" s="1" t="str">
+      <c r="N90" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(88, "soulsand", "Soul Sand", 64, 256, );</v>
+      </c>
+      <c r="O90" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('soulsand', 'Soul Sand', 64, 256, , 88);</v>
       </c>
-      <c r="O90" s="1" t="str">
+      <c r="P90" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='soulsand', [Name]='Soul Sand', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]= WHERE Item_ID = 206;</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:16">
       <c r="A91" s="7">
         <v>89</v>
       </c>
@@ -6716,16 +7107,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N91" s="15" t="str">
+      <c r="N91" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(89, "glowstoneblock", "Glowstone (Block)", 64, 256, 5);</v>
+      </c>
+      <c r="O91" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('glowstoneblock', 'Glowstone (Block)', 64, 256, 5, 89);</v>
       </c>
-      <c r="O91" s="15" t="str">
+      <c r="P91" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='glowstoneblock', [Name]='Glowstone (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 207;</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:16">
       <c r="A92" s="5">
         <v>90</v>
       </c>
@@ -6768,16 +7163,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N92" s="13" t="str">
+      <c r="N92" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(90, "portal", "Portal", 1, 1, 6);</v>
+      </c>
+      <c r="O92" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('portal', 'Portal', 1, 1, 6, 90);</v>
       </c>
-      <c r="O92" s="13" t="str">
+      <c r="P92" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='portal', [Name]='Portal', [Stack_Size]=1, [Max]=1, [Min_Rank_ID]=6 WHERE Item_ID = 390;</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:16" hidden="1">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6813,16 +7212,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N93" s="1" t="str">
+      <c r="N93" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(91, "jack-o-lantern", "Jack-O-Lantern", 1, 64, );</v>
+      </c>
+      <c r="O93" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('jack-o-lantern', 'Jack-O-Lantern', 1, 64, , 91);</v>
       </c>
-      <c r="O93" s="1" t="str">
+      <c r="P93" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='jack-o-lantern', [Name]='Jack-O-Lantern', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 208;</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:16">
       <c r="A94" s="5">
         <v>92</v>
       </c>
@@ -6865,16 +7268,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N94" s="13" t="str">
+      <c r="N94" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(92, "cakeblock", "Cake (Block)", 64, 256, 6);</v>
+      </c>
+      <c r="O94" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cakeblock', 'Cake (Block)', 64, 256, 6, 92);</v>
       </c>
-      <c r="O94" s="13" t="str">
+      <c r="P94" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cakeblock', [Name]='Cake (Block)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=6 WHERE Item_ID = 384;</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:16">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -6917,16 +7324,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N95" s="11" t="str">
+      <c r="N95" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(93, "redstonerepeater", "Redstone Repeater (\"off\" state)", 1, 64, 4);</v>
+      </c>
+      <c r="O95" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstonerepeater', 'Redstone Repeater ("off" state)', 1, 64, 4, 93);</v>
       </c>
-      <c r="O95" s="11" t="str">
+      <c r="P95" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstonerepeater', [Name]='Redstone Repeater ("off" state)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 369;</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:16">
       <c r="A96" s="5">
         <v>94</v>
       </c>
@@ -6969,16 +7380,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N96" s="13" t="str">
+      <c r="N96" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(94, "redstonerepeateron", "Redstone Repeater (\"on\" state)", 1, 64, 6);</v>
+      </c>
+      <c r="O96" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstonerepeateron', 'Redstone Repeater ("on" state)', 1, 64, 6, 94);</v>
       </c>
-      <c r="O96" s="13" t="str">
+      <c r="P96" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstonerepeateron', [Name]='Redstone Repeater ("on" state)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 391;</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:16">
       <c r="A97" s="5">
         <v>95</v>
       </c>
@@ -7021,16 +7436,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N97" s="13" t="str">
+      <c r="N97" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(95, "lockedchest", "Locked Chest", 1, 64, 6);</v>
+      </c>
+      <c r="O97" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('lockedchest', 'Locked Chest', 1, 64, 6, 95);</v>
       </c>
-      <c r="O97" s="13" t="str">
+      <c r="P97" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='lockedchest', [Name]='Locked Chest', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 335;</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:16">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -7071,16 +7490,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N98" s="11" t="str">
+      <c r="N98" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(96, "trapdoor", "Trapdoor", 64, 64, 4);</v>
+      </c>
+      <c r="O98" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('trapdoor', 'Trapdoor', 64, 64, 4, 96);</v>
       </c>
-      <c r="O98" s="11" t="str">
+      <c r="P98" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='trapdoor', [Name]='Trapdoor', [Stack_Size]=64, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 336;</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:16" hidden="1">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7113,16 +7536,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N99" s="1" t="str">
+      <c r="N99" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(97, "hiddensilverfish", "Hidden Silverfish", , , );</v>
+      </c>
+      <c r="O99" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('hiddensilverfish', 'Hidden Silverfish', , , , 97);</v>
       </c>
-      <c r="O99" s="1" t="str">
+      <c r="P99" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='hiddensilverfish', [Name]='Hidden Silverfish', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:16">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -7163,16 +7590,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N100" s="11" t="str">
+      <c r="N100" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(98, "stonebricks", "Stone Bricks", 64, 64, 4);</v>
+      </c>
+      <c r="O100" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stonebricks', 'Stone Bricks', 64, 64, 4, 98);</v>
       </c>
-      <c r="O100" s="11" t="str">
+      <c r="P100" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stonebricks', [Name]='Stone Bricks', [Stack_Size]=64, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 337;</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:16" hidden="1">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7205,16 +7636,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N101" s="1" t="str">
+      <c r="N101" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(99, "hugebrownmushroom", "Huge Brown Mushroom", , , );</v>
+      </c>
+      <c r="O101" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('hugebrownmushroom', 'Huge Brown Mushroom', , , , 99);</v>
       </c>
-      <c r="O101" s="1" t="str">
+      <c r="P101" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='hugebrownmushroom', [Name]='Huge Brown Mushroom', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:16" hidden="1">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7247,16 +7682,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N102" s="1" t="str">
+      <c r="N102" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(100, "hugeredmushroom", "Huge Red Mushroom", , , );</v>
+      </c>
+      <c r="O102" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('hugeredmushroom', 'Huge Red Mushroom', , , , 100);</v>
       </c>
-      <c r="O102" s="1" t="str">
+      <c r="P102" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='hugeredmushroom', [Name]='Huge Red Mushroom', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:16">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7295,16 +7734,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N103" s="11" t="str">
+      <c r="N103" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(101, "ironbars", "", 64, 256, 4);</v>
+      </c>
+      <c r="O103" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironbars', '', 64, 256, 4, 101);</v>
       </c>
-      <c r="O103" s="11" t="str">
+      <c r="P103" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironbars', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 338;</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:16">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7343,16 +7786,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N104" s="11" t="str">
+      <c r="N104" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(102, "glasspane", "", 64, 256, 4);</v>
+      </c>
+      <c r="O104" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('glasspane', '', 64, 256, 4, 102);</v>
       </c>
-      <c r="O104" s="11" t="str">
+      <c r="P104" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='glasspane', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 339;</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:16" hidden="1">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7379,16 +7826,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N105" s="1" t="str">
+      <c r="N105" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(103, "melon", "", , , );</v>
+      </c>
+      <c r="O105" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('melon', '', , , , 103);</v>
       </c>
-      <c r="O105" s="1" t="str">
+      <c r="P105" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='melon', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:16">
       <c r="A106" s="7">
         <v>104</v>
       </c>
@@ -7431,16 +7882,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N106" s="15" t="str">
+      <c r="N106" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(104, "pumkinstem", "", 1, 64, 5);</v>
+      </c>
+      <c r="O106" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('pumkinstem', '', 1, 64, 5, 104);</v>
       </c>
-      <c r="O106" s="15" t="str">
+      <c r="P106" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='pumkinstem', [Name]='', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 378;</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:16">
       <c r="A107" s="7">
         <v>105</v>
       </c>
@@ -7483,16 +7938,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N107" s="15" t="str">
+      <c r="N107" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(105, "melonstem", "", 1, 64, 5);</v>
+      </c>
+      <c r="O107" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('melonstem', '', 1, 64, 5, 105);</v>
       </c>
-      <c r="O107" s="15" t="str">
+      <c r="P107" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='melonstem', [Name]='', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 377;</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:16">
       <c r="A108" s="7">
         <v>106</v>
       </c>
@@ -7531,16 +7990,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N108" s="15" t="str">
+      <c r="N108" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(106, "vines", "", 64, 256, 5);</v>
+      </c>
+      <c r="O108" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('vines', '', 64, 256, 5, 106);</v>
       </c>
-      <c r="O108" s="15" t="str">
+      <c r="P108" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='vines', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = 381;</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:16">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7579,16 +8042,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N109" s="11" t="str">
+      <c r="N109" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(107, "fencegate", "", 64, 256, 4);</v>
+      </c>
+      <c r="O109" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('fencegate', '', 64, 256, 4, 107);</v>
       </c>
-      <c r="O109" s="11" t="str">
+      <c r="P109" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='fencegate', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 340;</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:16">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7629,16 +8096,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N110" s="11" t="str">
+      <c r="N110" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(108, "brickstairs", "Brick Stairs", 64, 256, 4);</v>
+      </c>
+      <c r="O110" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('brickstairs', 'Brick Stairs', 64, 256, 4, 108);</v>
       </c>
-      <c r="O110" s="11" t="str">
+      <c r="P110" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='brickstairs', [Name]='Brick Stairs', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 341;</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:16">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7679,16 +8150,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N111" s="11" t="str">
+      <c r="N111" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(109, "stonebrickstairs", "Stone Brick Stairs", 64, 64, 4);</v>
+      </c>
+      <c r="O111" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stonebrickstairs', 'Stone Brick Stairs', 64, 64, 4, 109);</v>
       </c>
-      <c r="O111" s="11" t="str">
+      <c r="P111" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stonebrickstairs', [Name]='Stone Brick Stairs', [Stack_Size]=64, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 342;</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:16" hidden="1">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7718,16 +8193,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N112" s="1" t="str">
+      <c r="N112" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(110, "mycelium", "", , , );</v>
+      </c>
+      <c r="O112" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('mycelium', '', , , , 110);</v>
       </c>
-      <c r="O112" s="1" t="str">
+      <c r="P112" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='mycelium', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:16" hidden="1">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7754,16 +8233,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N113" s="1" t="str">
+      <c r="N113" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(111, "lilypad", "", , , );</v>
+      </c>
+      <c r="O113" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('lilypad', '', , , , 111);</v>
       </c>
-      <c r="O113" s="1" t="str">
+      <c r="P113" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='lilypad', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:16" hidden="1">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7790,16 +8273,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N114" s="1" t="str">
+      <c r="N114" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(112, "netherbrick", "", , , );</v>
+      </c>
+      <c r="O114" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('netherbrick', '', , , , 112);</v>
       </c>
-      <c r="O114" s="1" t="str">
+      <c r="P114" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='netherbrick', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:16" hidden="1">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7826,16 +8313,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N115" s="1" t="str">
+      <c r="N115" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(113, "netherbrickfence", "", , , );</v>
+      </c>
+      <c r="O115" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('netherbrickfence', '', , , , 113);</v>
       </c>
-      <c r="O115" s="1" t="str">
+      <c r="P115" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='netherbrickfence', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:16" hidden="1">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7862,16 +8353,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N116" s="1" t="str">
+      <c r="N116" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(114, "netherbrickstairs", "", , , );</v>
+      </c>
+      <c r="O116" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('netherbrickstairs', '', , , , 114);</v>
       </c>
-      <c r="O116" s="1" t="str">
+      <c r="P116" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='netherbrickstairs', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:16">
       <c r="A117" s="7">
         <v>115</v>
       </c>
@@ -7910,16 +8405,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>1</v>
       </c>
-      <c r="N117" s="15" t="str">
+      <c r="N117" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(115, "netherwartblock", "", 64, 256, 5);</v>
+      </c>
+      <c r="O117" s="15" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('netherwartblock', '', 64, 256, 5, 115);</v>
       </c>
-      <c r="O117" s="15" t="str">
+      <c r="P117" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='netherwartblock', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=5 WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:16" hidden="1">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7946,16 +8445,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N118" s="1" t="str">
+      <c r="N118" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(116, "enchantmenttable", "", , , );</v>
+      </c>
+      <c r="O118" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('enchantmenttable', '', , , , 116);</v>
       </c>
-      <c r="O118" s="1" t="str">
+      <c r="P118" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='enchantmenttable', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:16">
       <c r="A119" s="5">
         <v>117</v>
       </c>
@@ -7996,16 +8499,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>1</v>
       </c>
-      <c r="N119" s="13" t="str">
+      <c r="N119" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(117, "brewingstandblock", "Brewing Stand (Block)", 1, 64, 6);</v>
+      </c>
+      <c r="O119" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('brewingstandblock', 'Brewing Stand (Block)', 1, 64, 6, 117);</v>
       </c>
-      <c r="O119" s="13" t="str">
+      <c r="P119" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='brewingstandblock', [Name]='Brewing Stand (Block)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:16">
       <c r="A120" s="5">
         <v>118</v>
       </c>
@@ -8046,16 +8553,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N120" s="13" t="str">
+      <c r="N120" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(118, "cauldronblock", "Cauldron (Block)", 1, 64, 6);</v>
+      </c>
+      <c r="O120" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cauldronblock', 'Cauldron (Block)', 1, 64, 6, 118);</v>
       </c>
-      <c r="O120" s="13" t="str">
+      <c r="P120" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cauldronblock', [Name]='Cauldron (Block)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 385;</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:16">
       <c r="A121" s="5">
         <v>119</v>
       </c>
@@ -8096,16 +8607,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N121" s="13" t="str">
+      <c r="N121" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(119, "endportal", "", 1, 64, 6);</v>
+      </c>
+      <c r="O121" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('endportal', '', 1, 64, 6, 119);</v>
       </c>
-      <c r="O121" s="13" t="str">
+      <c r="P121" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='endportal', [Name]='', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 386;</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:16">
       <c r="A122" s="5">
         <v>120</v>
       </c>
@@ -8146,16 +8661,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N122" s="13" t="str">
+      <c r="N122" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(120, "endportalframe", "", 1, 64, 6);</v>
+      </c>
+      <c r="O122" s="13" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('endportalframe', '', 1, 64, 6, 120);</v>
       </c>
-      <c r="O122" s="13" t="str">
+      <c r="P122" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='endportalframe', [Name]='', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = 387;</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:16" hidden="1">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8185,16 +8704,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N123" s="1" t="str">
+      <c r="N123" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(121, "endstone", "", , , );</v>
+      </c>
+      <c r="O123" s="1" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('endstone', '', , , , 121);</v>
       </c>
-      <c r="O123" s="1" t="str">
+      <c r="P123" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='endstone', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:16">
       <c r="A124" s="3">
         <v>256</v>
       </c>
@@ -8235,16 +8758,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="str">
+      <c r="N124" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(256, "ironshovel", "Iron Shovel", 1, 64, 4);</v>
+      </c>
+      <c r="O124" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironshovel', 'Iron Shovel', 1, 64, 4, 256);</v>
       </c>
-      <c r="O124" s="11" t="str">
+      <c r="P124" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironshovel', [Name]='Iron Shovel', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 209;</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:16">
       <c r="A125" s="3">
         <v>257</v>
       </c>
@@ -8285,16 +8812,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N125" s="11" t="str">
+      <c r="N125" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(257, "ironpickaxe", "Iron Pickaxe", 1, 64, 4);</v>
+      </c>
+      <c r="O125" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironpickaxe', 'Iron Pickaxe', 1, 64, 4, 257);</v>
       </c>
-      <c r="O125" s="11" t="str">
+      <c r="P125" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironpickaxe', [Name]='Iron Pickaxe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 210;</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:16">
       <c r="A126" s="3">
         <v>258</v>
       </c>
@@ -8335,16 +8866,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N126" s="11" t="str">
+      <c r="N126" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(258, "ironaxe", "Iron Axe", 1, 64, 4);</v>
+      </c>
+      <c r="O126" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironaxe', 'Iron Axe', 1, 64, 4, 258);</v>
       </c>
-      <c r="O126" s="11" t="str">
+      <c r="P126" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironaxe', [Name]='Iron Axe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 211;</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:16">
       <c r="A127" s="3">
         <v>259</v>
       </c>
@@ -8385,16 +8920,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N127" s="11" t="str">
+      <c r="N127" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(259, "flintandsteel", "Flint and Steel", 1, 64, 4);</v>
+      </c>
+      <c r="O127" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('flintandsteel', 'Flint and Steel', 1, 64, 4, 259);</v>
       </c>
-      <c r="O127" s="11" t="str">
+      <c r="P127" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='flintandsteel', [Name]='Flint and Steel', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 212;</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:16">
       <c r="A128" s="3">
         <v>260</v>
       </c>
@@ -8435,16 +8974,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N128" s="11" t="str">
+      <c r="N128" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(260, "apple", "Apple", 1, 64, 4);</v>
+      </c>
+      <c r="O128" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('apple', 'Apple', 1, 64, 4, 260);</v>
       </c>
-      <c r="O128" s="11" t="str">
+      <c r="P128" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='apple', [Name]='Apple', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 213;</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:16">
       <c r="A129" s="3">
         <v>261</v>
       </c>
@@ -8485,16 +9028,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N129" s="11" t="str">
+      <c r="N129" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(261, "bow", "Bow", 1, 64, 4);</v>
+      </c>
+      <c r="O129" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bow', 'Bow', 1, 64, 4, 261);</v>
       </c>
-      <c r="O129" s="11" t="str">
+      <c r="P129" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bow', [Name]='Bow', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 214;</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:16">
       <c r="A130" s="3">
         <v>262</v>
       </c>
@@ -8535,16 +9082,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N130" s="11" t="str">
-        <f t="shared" ref="N130:N193" si="5">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B130, "', '", C130, "', ", D130, ", ", E130, ", ", F130, ", ", A130, ");")</f>
+      <c r="N130" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(262, "arrow", "Arrow", 64, 256, 4);</v>
+      </c>
+      <c r="O130" s="11" t="str">
+        <f t="shared" ref="O130:O193" si="5">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B130, "', '", C130, "', ", D130, ", ", E130, ", ", F130, ", ", A130, ");")</f>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('arrow', 'Arrow', 64, 256, 4, 262);</v>
       </c>
-      <c r="O130" s="11" t="str">
+      <c r="P130" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='arrow', [Name]='Arrow', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 215;</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:16">
       <c r="A131" s="3">
         <v>263</v>
       </c>
@@ -8585,16 +9136,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N131" s="11" t="str">
+      <c r="N131" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(263, "coal", "Coal", 1, 64, 4);</v>
+      </c>
+      <c r="O131" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('coal', 'Coal', 1, 64, 4, 263);</v>
       </c>
-      <c r="O131" s="11" t="str">
+      <c r="P131" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='coal', [Name]='Coal', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 216;</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:16">
       <c r="A132" s="3">
         <v>264</v>
       </c>
@@ -8635,16 +9190,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N132" s="11" t="str">
+      <c r="N132" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(264, "diamond", "Diamond (gem)", 64, 256, 4);</v>
+      </c>
+      <c r="O132" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamond', 'Diamond (gem)', 64, 256, 4, 264);</v>
       </c>
-      <c r="O132" s="11" t="str">
+      <c r="P132" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamond', [Name]='Diamond (gem)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 217;</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:16">
       <c r="A133" s="3">
         <v>265</v>
       </c>
@@ -8685,16 +9244,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N133" s="11" t="str">
+      <c r="N133" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(265, "ironingot", "Iron Ingot", 1, 64, 4);</v>
+      </c>
+      <c r="O133" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironingot', 'Iron Ingot', 1, 64, 4, 265);</v>
       </c>
-      <c r="O133" s="11" t="str">
+      <c r="P133" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironingot', [Name]='Iron Ingot', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 218;</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:16">
       <c r="A134" s="3">
         <v>266</v>
       </c>
@@ -8735,16 +9298,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N134" s="11" t="str">
+      <c r="N134" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(266, "goldingot", "Gold Ingot", 1, 64, 4);</v>
+      </c>
+      <c r="O134" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldingot', 'Gold Ingot', 1, 64, 4, 266);</v>
       </c>
-      <c r="O134" s="11" t="str">
+      <c r="P134" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldingot', [Name]='Gold Ingot', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 219;</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:16">
       <c r="A135" s="3">
         <v>267</v>
       </c>
@@ -8785,16 +9352,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N135" s="11" t="str">
+      <c r="N135" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(267, "ironsword", "Iron Sword", 1, 64, 4);</v>
+      </c>
+      <c r="O135" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironsword', 'Iron Sword', 1, 64, 4, 267);</v>
       </c>
-      <c r="O135" s="11" t="str">
+      <c r="P135" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironsword', [Name]='Iron Sword', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 220;</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:16">
       <c r="A136" s="3">
         <v>268</v>
       </c>
@@ -8835,16 +9406,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N136" s="11" t="str">
+      <c r="N136" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(268, "planks", "Planks", 1, 64, 4);</v>
+      </c>
+      <c r="O136" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('planks', 'Planks', 1, 64, 4, 268);</v>
       </c>
-      <c r="O136" s="11" t="str">
+      <c r="P136" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='planks', [Name]='Planks', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 221;</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:16">
       <c r="A137" s="3">
         <v>269</v>
       </c>
@@ -8885,16 +9460,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N137" s="11" t="str">
+      <c r="N137" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(269, "woodenshovel", "Wooden Shovel", 1, 64, 4);</v>
+      </c>
+      <c r="O137" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodenshovel', 'Wooden Shovel', 1, 64, 4, 269);</v>
       </c>
-      <c r="O137" s="11" t="str">
+      <c r="P137" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodenshovel', [Name]='Wooden Shovel', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 222;</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:16">
       <c r="A138" s="3">
         <v>270</v>
       </c>
@@ -8935,16 +9514,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N138" s="11" t="str">
+      <c r="N138" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(270, "woodenpickaxe", "Wooden Pickaxe", 1, 64, 4);</v>
+      </c>
+      <c r="O138" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodenpickaxe', 'Wooden Pickaxe', 1, 64, 4, 270);</v>
       </c>
-      <c r="O138" s="11" t="str">
+      <c r="P138" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodenpickaxe', [Name]='Wooden Pickaxe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 223;</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:16">
       <c r="A139" s="3">
         <v>271</v>
       </c>
@@ -8985,16 +9568,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N139" s="11" t="str">
+      <c r="N139" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(271, "woodenaxe", "Wooden Axe", 1, 64, 4);</v>
+      </c>
+      <c r="O139" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodenaxe', 'Wooden Axe', 1, 64, 4, 271);</v>
       </c>
-      <c r="O139" s="11" t="str">
+      <c r="P139" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodenaxe', [Name]='Wooden Axe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 224;</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:16">
       <c r="A140" s="3">
         <v>272</v>
       </c>
@@ -9035,16 +9622,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N140" s="11" t="str">
+      <c r="N140" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(272, "stonesword", "Stone Sword", 1, 64, 4);</v>
+      </c>
+      <c r="O140" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stonesword', 'Stone Sword', 1, 64, 4, 272);</v>
       </c>
-      <c r="O140" s="11" t="str">
+      <c r="P140" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stonesword', [Name]='Stone Sword', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 225;</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:16">
       <c r="A141" s="3">
         <v>273</v>
       </c>
@@ -9085,16 +9676,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="str">
+      <c r="N141" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(273, "stoneshovel", "Stone Shovel", 1, 64, 4);</v>
+      </c>
+      <c r="O141" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stoneshovel', 'Stone Shovel', 1, 64, 4, 273);</v>
       </c>
-      <c r="O141" s="11" t="str">
+      <c r="P141" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stoneshovel', [Name]='Stone Shovel', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 226;</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:16">
       <c r="A142" s="3">
         <v>274</v>
       </c>
@@ -9135,16 +9730,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N142" s="11" t="str">
+      <c r="N142" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(274, "stonepickaxe", "Stone Pickaxe", 1, 64, 4);</v>
+      </c>
+      <c r="O142" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stonepickaxe', 'Stone Pickaxe', 1, 64, 4, 274);</v>
       </c>
-      <c r="O142" s="11" t="str">
+      <c r="P142" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stonepickaxe', [Name]='Stone Pickaxe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 227;</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:16">
       <c r="A143" s="3">
         <v>275</v>
       </c>
@@ -9185,16 +9784,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N143" s="11" t="str">
+      <c r="N143" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(275, "stoneaxe", "Stone Axe", 1, 64, 4);</v>
+      </c>
+      <c r="O143" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stoneaxe', 'Stone Axe', 1, 64, 4, 275);</v>
       </c>
-      <c r="O143" s="11" t="str">
+      <c r="P143" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stoneaxe', [Name]='Stone Axe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 228;</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:16">
       <c r="A144" s="3">
         <v>276</v>
       </c>
@@ -9235,16 +9838,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N144" s="11" t="str">
+      <c r="N144" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(276, "diamondsword", "Diamond Sword", 1, 64, 4);</v>
+      </c>
+      <c r="O144" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondsword', 'Diamond Sword', 1, 64, 4, 276);</v>
       </c>
-      <c r="O144" s="11" t="str">
+      <c r="P144" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondsword', [Name]='Diamond Sword', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 229;</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:16">
       <c r="A145" s="3">
         <v>277</v>
       </c>
@@ -9285,16 +9892,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N145" s="11" t="str">
+      <c r="N145" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(277, "diamondshovel", "Diamond Shovel", 1, 64, 4);</v>
+      </c>
+      <c r="O145" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondshovel', 'Diamond Shovel', 1, 64, 4, 277);</v>
       </c>
-      <c r="O145" s="11" t="str">
+      <c r="P145" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondshovel', [Name]='Diamond Shovel', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 230;</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:16">
       <c r="A146" s="3">
         <v>278</v>
       </c>
@@ -9335,16 +9946,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N146" s="11" t="str">
+      <c r="N146" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(278, "diamondpickaxe", "Diamond Pickaxe", 1, 64, 4);</v>
+      </c>
+      <c r="O146" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondpickaxe', 'Diamond Pickaxe', 1, 64, 4, 278);</v>
       </c>
-      <c r="O146" s="11" t="str">
+      <c r="P146" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondpickaxe', [Name]='Diamond Pickaxe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 231;</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:16">
       <c r="A147" s="3">
         <v>279</v>
       </c>
@@ -9385,16 +10000,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N147" s="11" t="str">
+      <c r="N147" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(279, "diamondaxe", "Diamond Axe", 1, 64, 4);</v>
+      </c>
+      <c r="O147" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondaxe', 'Diamond Axe', 1, 64, 4, 279);</v>
       </c>
-      <c r="O147" s="11" t="str">
+      <c r="P147" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondaxe', [Name]='Diamond Axe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 232;</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:16">
       <c r="A148" s="3">
         <v>280</v>
       </c>
@@ -9435,16 +10054,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N148" s="11" t="str">
+      <c r="N148" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(280, "stick", "Stick", 64, 256, 4);</v>
+      </c>
+      <c r="O148" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stick', 'Stick', 64, 256, 4, 280);</v>
       </c>
-      <c r="O148" s="11" t="str">
+      <c r="P148" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stick', [Name]='Stick', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 233;</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:16">
       <c r="A149" s="3">
         <v>281</v>
       </c>
@@ -9485,16 +10108,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N149" s="11" t="str">
+      <c r="N149" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(281, "bowl", "Bowl", 1, 64, 4);</v>
+      </c>
+      <c r="O149" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bowl', 'Bowl', 1, 64, 4, 281);</v>
       </c>
-      <c r="O149" s="11" t="str">
+      <c r="P149" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bowl', [Name]='Bowl', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 234;</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:16">
       <c r="A150" s="3">
         <v>282</v>
       </c>
@@ -9535,16 +10162,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N150" s="11" t="str">
+      <c r="N150" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(282, "mushroomsoup", "Mushroom Soup", 1, 64, 4);</v>
+      </c>
+      <c r="O150" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('mushroomsoup', 'Mushroom Soup', 1, 64, 4, 282);</v>
       </c>
-      <c r="O150" s="11" t="str">
+      <c r="P150" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='mushroomsoup', [Name]='Mushroom Soup', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 235;</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:16">
       <c r="A151" s="3">
         <v>283</v>
       </c>
@@ -9585,16 +10216,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N151" s="11" t="str">
+      <c r="N151" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(283, "goldsword", "Gold Sword", 1, 64, 4);</v>
+      </c>
+      <c r="O151" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldsword', 'Gold Sword', 1, 64, 4, 283);</v>
       </c>
-      <c r="O151" s="11" t="str">
+      <c r="P151" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldsword', [Name]='Gold Sword', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 236;</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:16">
       <c r="A152" s="3">
         <v>284</v>
       </c>
@@ -9635,16 +10270,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N152" s="11" t="str">
+      <c r="N152" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(284, "goldshovel", "Gold Shovel", 1, 64, 4);</v>
+      </c>
+      <c r="O152" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldshovel', 'Gold Shovel', 1, 64, 4, 284);</v>
       </c>
-      <c r="O152" s="11" t="str">
+      <c r="P152" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldshovel', [Name]='Gold Shovel', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 237;</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:16">
       <c r="A153" s="3">
         <v>285</v>
       </c>
@@ -9685,16 +10324,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N153" s="11" t="str">
+      <c r="N153" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(285, "goldpickaxe", "Gold Pickaxe", 1, 64, 4);</v>
+      </c>
+      <c r="O153" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldpickaxe', 'Gold Pickaxe', 1, 64, 4, 285);</v>
       </c>
-      <c r="O153" s="11" t="str">
+      <c r="P153" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldpickaxe', [Name]='Gold Pickaxe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 238;</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:16">
       <c r="A154" s="3">
         <v>286</v>
       </c>
@@ -9735,16 +10378,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N154" s="11" t="str">
+      <c r="N154" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(286, "goldaxe", "Gold Axe", 1, 64, 4);</v>
+      </c>
+      <c r="O154" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldaxe', 'Gold Axe', 1, 64, 4, 286);</v>
       </c>
-      <c r="O154" s="11" t="str">
+      <c r="P154" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldaxe', [Name]='Gold Axe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 239;</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:16">
       <c r="A155" s="3">
         <v>287</v>
       </c>
@@ -9785,16 +10432,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N155" s="11" t="str">
+      <c r="N155" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(287, "string", "String", 1, 64, 4);</v>
+      </c>
+      <c r="O155" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('string', 'String', 1, 64, 4, 287);</v>
       </c>
-      <c r="O155" s="11" t="str">
+      <c r="P155" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='string', [Name]='String', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 240;</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:16">
       <c r="A156" s="3">
         <v>288</v>
       </c>
@@ -9835,16 +10486,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N156" s="11" t="str">
+      <c r="N156" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(288, "feather", "Feather", 1, 64, 4);</v>
+      </c>
+      <c r="O156" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('feather', 'Feather', 1, 64, 4, 288);</v>
       </c>
-      <c r="O156" s="11" t="str">
+      <c r="P156" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='feather', [Name]='Feather', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 241;</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:16">
       <c r="A157" s="3">
         <v>289</v>
       </c>
@@ -9885,16 +10540,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N157" s="11" t="str">
+      <c r="N157" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(289, "gunpowder", "Gunpowder", 1, 64, 4);</v>
+      </c>
+      <c r="O157" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('gunpowder', 'Gunpowder', 1, 64, 4, 289);</v>
       </c>
-      <c r="O157" s="11" t="str">
+      <c r="P157" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='gunpowder', [Name]='Gunpowder', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 242;</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:16">
       <c r="A158" s="3">
         <v>290</v>
       </c>
@@ -9935,16 +10594,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N158" s="11" t="str">
+      <c r="N158" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(290, "woodenhoe", "Wooden Hoe", 1, 64, 4);</v>
+      </c>
+      <c r="O158" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodenhoe', 'Wooden Hoe', 1, 64, 4, 290);</v>
       </c>
-      <c r="O158" s="11" t="str">
+      <c r="P158" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodenhoe', [Name]='Wooden Hoe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 243;</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:16">
       <c r="A159" s="3">
         <v>291</v>
       </c>
@@ -9985,16 +10648,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N159" s="11" t="str">
+      <c r="N159" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(291, "stonehoe", "Stone Hoe", 1, 64, 4);</v>
+      </c>
+      <c r="O159" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('stonehoe', 'Stone Hoe', 1, 64, 4, 291);</v>
       </c>
-      <c r="O159" s="11" t="str">
+      <c r="P159" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='stonehoe', [Name]='Stone Hoe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 244;</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:16">
       <c r="A160" s="3">
         <v>292</v>
       </c>
@@ -10035,16 +10702,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N160" s="11" t="str">
+      <c r="N160" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(292, "ironhoe", "Iron Hoe", 1, 64, 4);</v>
+      </c>
+      <c r="O160" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironhoe', 'Iron Hoe', 1, 64, 4, 292);</v>
       </c>
-      <c r="O160" s="11" t="str">
+      <c r="P160" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironhoe', [Name]='Iron Hoe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 245;</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:16">
       <c r="A161" s="3">
         <v>293</v>
       </c>
@@ -10085,16 +10756,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N161" s="11" t="str">
+      <c r="N161" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(293, "diamondhoe", "Diamond Hoe", 1, 64, 4);</v>
+      </c>
+      <c r="O161" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondhoe', 'Diamond Hoe', 1, 64, 4, 293);</v>
       </c>
-      <c r="O161" s="11" t="str">
+      <c r="P161" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondhoe', [Name]='Diamond Hoe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 246;</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:16">
       <c r="A162" s="3">
         <v>294</v>
       </c>
@@ -10135,16 +10810,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N162" s="11" t="str">
+      <c r="N162" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(294, "goldhoe", "Gold Hoe", 1, 64, 4);</v>
+      </c>
+      <c r="O162" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldhoe', 'Gold Hoe', 1, 64, 4, 294);</v>
       </c>
-      <c r="O162" s="11" t="str">
+      <c r="P162" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldhoe', [Name]='Gold Hoe', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 247;</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:16">
       <c r="A163" s="3">
         <v>295</v>
       </c>
@@ -10185,16 +10864,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N163" s="11" t="str">
+      <c r="N163" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(295, "seeds", "Seeds", 1, 64, 4);</v>
+      </c>
+      <c r="O163" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('seeds', 'Seeds', 1, 64, 4, 295);</v>
       </c>
-      <c r="O163" s="11" t="str">
+      <c r="P163" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='seeds', [Name]='Seeds', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 248;</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:16">
       <c r="A164" s="3">
         <v>296</v>
       </c>
@@ -10235,16 +10918,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N164" s="11" t="str">
+      <c r="N164" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(296, "wheat", "Wheat", 1, 64, 4);</v>
+      </c>
+      <c r="O164" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('wheat', 'Wheat', 1, 64, 4, 296);</v>
       </c>
-      <c r="O164" s="11" t="str">
+      <c r="P164" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='wheat', [Name]='Wheat', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 249;</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:16">
       <c r="A165" s="3">
         <v>297</v>
       </c>
@@ -10285,16 +10972,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N165" s="11" t="str">
+      <c r="N165" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(297, "bread", "Bread", 1, 64, 4);</v>
+      </c>
+      <c r="O165" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bread', 'Bread', 1, 64, 4, 297);</v>
       </c>
-      <c r="O165" s="11" t="str">
+      <c r="P165" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bread', [Name]='Bread', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 250;</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:16">
       <c r="A166" s="3">
         <v>298</v>
       </c>
@@ -10335,16 +11026,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N166" s="11" t="str">
+      <c r="N166" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(298, "leatherhelmet", "Leather Helmet", 1, 64, 4);</v>
+      </c>
+      <c r="O166" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('leatherhelmet', 'Leather Helmet', 1, 64, 4, 298);</v>
       </c>
-      <c r="O166" s="11" t="str">
+      <c r="P166" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='leatherhelmet', [Name]='Leather Helmet', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 251;</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:16">
       <c r="A167" s="3">
         <v>299</v>
       </c>
@@ -10385,16 +11080,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N167" s="11" t="str">
+      <c r="N167" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(299, "leatherchestplate", "Leather Chestplate", 1, 64, 4);</v>
+      </c>
+      <c r="O167" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('leatherchestplate', 'Leather Chestplate', 1, 64, 4, 299);</v>
       </c>
-      <c r="O167" s="11" t="str">
+      <c r="P167" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='leatherchestplate', [Name]='Leather Chestplate', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 252;</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:16">
       <c r="A168" s="3">
         <v>300</v>
       </c>
@@ -10435,16 +11134,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N168" s="11" t="str">
+      <c r="N168" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(300, "leatherleggings", "Leather Leggings", 1, 64, 4);</v>
+      </c>
+      <c r="O168" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('leatherleggings', 'Leather Leggings', 1, 64, 4, 300);</v>
       </c>
-      <c r="O168" s="11" t="str">
+      <c r="P168" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='leatherleggings', [Name]='Leather Leggings', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 253;</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:16">
       <c r="A169" s="3">
         <v>301</v>
       </c>
@@ -10485,16 +11188,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N169" s="11" t="str">
+      <c r="N169" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(301, "leatherboots", "Leather Boots", 1, 64, 4);</v>
+      </c>
+      <c r="O169" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('leatherboots', 'Leather Boots', 1, 64, 4, 301);</v>
       </c>
-      <c r="O169" s="11" t="str">
+      <c r="P169" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='leatherboots', [Name]='Leather Boots', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 254;</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:16">
       <c r="A170" s="3">
         <v>302</v>
       </c>
@@ -10537,16 +11244,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N170" s="11" t="str">
+      <c r="N170" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(302, "chainarmorhelmet", "Chain Armor Helmet", 1, 64, 4);</v>
+      </c>
+      <c r="O170" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('chainarmorhelmet', 'Chain Armor Helmet', 1, 64, 4, 302);</v>
       </c>
-      <c r="O170" s="11" t="str">
+      <c r="P170" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='chainarmorhelmet', [Name]='Chain Armor Helmet', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 255;</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:16">
       <c r="A171" s="3">
         <v>303</v>
       </c>
@@ -10589,16 +11300,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N171" s="11" t="str">
+      <c r="N171" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(303, "chainarmorchestplate", "Chain Armor Chestplate", 1, 64, 4);</v>
+      </c>
+      <c r="O171" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('chainarmorchestplate', 'Chain Armor Chestplate', 1, 64, 4, 303);</v>
       </c>
-      <c r="O171" s="11" t="str">
+      <c r="P171" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='chainarmorchestplate', [Name]='Chain Armor Chestplate', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 256;</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:16">
       <c r="A172" s="3">
         <v>304</v>
       </c>
@@ -10641,16 +11356,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N172" s="11" t="str">
+      <c r="N172" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(304, "chainarmorleggings", "Chain Armor Leggings", 1, 64, 4);</v>
+      </c>
+      <c r="O172" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('chainarmorleggings', 'Chain Armor Leggings', 1, 64, 4, 304);</v>
       </c>
-      <c r="O172" s="11" t="str">
+      <c r="P172" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='chainarmorleggings', [Name]='Chain Armor Leggings', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 257;</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:16">
       <c r="A173" s="3">
         <v>305</v>
       </c>
@@ -10693,16 +11412,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N173" s="11" t="str">
+      <c r="N173" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(305, "chainarmorboots", "Chain Armor Boots", 1, 64, 4);</v>
+      </c>
+      <c r="O173" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('chainarmorboots', 'Chain Armor Boots', 1, 64, 4, 305);</v>
       </c>
-      <c r="O173" s="11" t="str">
+      <c r="P173" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='chainarmorboots', [Name]='Chain Armor Boots', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 258;</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:16">
       <c r="A174" s="3">
         <v>306</v>
       </c>
@@ -10743,16 +11466,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N174" s="11" t="str">
+      <c r="N174" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(306, "ironhelmet", "Iron Helmet", 1, 64, 4);</v>
+      </c>
+      <c r="O174" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironhelmet', 'Iron Helmet', 1, 64, 4, 306);</v>
       </c>
-      <c r="O174" s="11" t="str">
+      <c r="P174" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironhelmet', [Name]='Iron Helmet', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 259;</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:16">
       <c r="A175" s="3">
         <v>307</v>
       </c>
@@ -10793,16 +11520,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N175" s="11" t="str">
+      <c r="N175" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(307, "ironchestplate", "Iron Chestplate", 1, 64, 4);</v>
+      </c>
+      <c r="O175" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironchestplate', 'Iron Chestplate', 1, 64, 4, 307);</v>
       </c>
-      <c r="O175" s="11" t="str">
+      <c r="P175" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironchestplate', [Name]='Iron Chestplate', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 260;</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:16">
       <c r="A176" s="3">
         <v>308</v>
       </c>
@@ -10843,16 +11574,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N176" s="11" t="str">
+      <c r="N176" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(308, "ironleggings", "Iron Leggings", 1, 64, 4);</v>
+      </c>
+      <c r="O176" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironleggings', 'Iron Leggings', 1, 64, 4, 308);</v>
       </c>
-      <c r="O176" s="11" t="str">
+      <c r="P176" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironleggings', [Name]='Iron Leggings', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 261;</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:16">
       <c r="A177" s="3">
         <v>309</v>
       </c>
@@ -10893,16 +11628,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N177" s="11" t="str">
+      <c r="N177" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(309, "ironboots", "Iron Boots", 1, 64, 4);</v>
+      </c>
+      <c r="O177" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ironboots', 'Iron Boots', 1, 64, 4, 309);</v>
       </c>
-      <c r="O177" s="11" t="str">
+      <c r="P177" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ironboots', [Name]='Iron Boots', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 262;</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:16">
       <c r="A178" s="3">
         <v>310</v>
       </c>
@@ -10943,16 +11682,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N178" s="11" t="str">
+      <c r="N178" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(310, "diamondhelmet", "Diamond Helmet", 1, 64, 4);</v>
+      </c>
+      <c r="O178" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondhelmet', 'Diamond Helmet', 1, 64, 4, 310);</v>
       </c>
-      <c r="O178" s="11" t="str">
+      <c r="P178" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondhelmet', [Name]='Diamond Helmet', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 263;</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:16">
       <c r="A179" s="3">
         <v>311</v>
       </c>
@@ -10993,16 +11736,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N179" s="11" t="str">
+      <c r="N179" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(311, "diamondchestplate", "Diamond Chestplate", 1, 64, 4);</v>
+      </c>
+      <c r="O179" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondchestplate', 'Diamond Chestplate', 1, 64, 4, 311);</v>
       </c>
-      <c r="O179" s="11" t="str">
+      <c r="P179" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondchestplate', [Name]='Diamond Chestplate', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 264;</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:16">
       <c r="A180" s="3">
         <v>312</v>
       </c>
@@ -11043,16 +11790,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N180" s="11" t="str">
+      <c r="N180" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(312, "diamondleggings", "Diamond Leggings", 1, 64, 4);</v>
+      </c>
+      <c r="O180" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondleggings', 'Diamond Leggings', 1, 64, 4, 312);</v>
       </c>
-      <c r="O180" s="11" t="str">
+      <c r="P180" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondleggings', [Name]='Diamond Leggings', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 265;</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:16">
       <c r="A181" s="3">
         <v>313</v>
       </c>
@@ -11093,16 +11844,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N181" s="11" t="str">
+      <c r="N181" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(313, "diamondboots", "Diamond Boots", 1, 64, 4);</v>
+      </c>
+      <c r="O181" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('diamondboots', 'Diamond Boots', 1, 64, 4, 313);</v>
       </c>
-      <c r="O181" s="11" t="str">
+      <c r="P181" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='diamondboots', [Name]='Diamond Boots', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 266;</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:16">
       <c r="A182" s="3">
         <v>314</v>
       </c>
@@ -11143,16 +11898,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N182" s="11" t="str">
+      <c r="N182" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(314, "goldhelmet", "Gold Helmet", 1, 64, 4);</v>
+      </c>
+      <c r="O182" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldhelmet', 'Gold Helmet', 1, 64, 4, 314);</v>
       </c>
-      <c r="O182" s="11" t="str">
+      <c r="P182" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldhelmet', [Name]='Gold Helmet', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 267;</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:16">
       <c r="A183" s="3">
         <v>315</v>
       </c>
@@ -11193,16 +11952,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N183" s="11" t="str">
+      <c r="N183" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(315, "goldchestplate", "Gold Chestplate", 1, 64, 4);</v>
+      </c>
+      <c r="O183" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldchestplate', 'Gold Chestplate', 1, 64, 4, 315);</v>
       </c>
-      <c r="O183" s="11" t="str">
+      <c r="P183" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldchestplate', [Name]='Gold Chestplate', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 268;</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:16">
       <c r="A184" s="3">
         <v>316</v>
       </c>
@@ -11243,16 +12006,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N184" s="11" t="str">
+      <c r="N184" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(316, "goldleggings", "Gold Leggings", 1, 64, 4);</v>
+      </c>
+      <c r="O184" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldleggings', 'Gold Leggings', 1, 64, 4, 316);</v>
       </c>
-      <c r="O184" s="11" t="str">
+      <c r="P184" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldleggings', [Name]='Gold Leggings', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 269;</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:16">
       <c r="A185" s="3">
         <v>317</v>
       </c>
@@ -11293,16 +12060,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N185" s="11" t="str">
+      <c r="N185" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(317, "goldboots", "Gold Boots", 1, 64, 4);</v>
+      </c>
+      <c r="O185" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldboots', 'Gold Boots', 1, 64, 4, 317);</v>
       </c>
-      <c r="O185" s="11" t="str">
+      <c r="P185" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldboots', [Name]='Gold Boots', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 270;</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:16">
       <c r="A186" s="3">
         <v>318</v>
       </c>
@@ -11343,16 +12114,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N186" s="11" t="str">
+      <c r="N186" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(318, "flint", "Flint", 1, 64, 4);</v>
+      </c>
+      <c r="O186" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('flint', 'Flint', 1, 64, 4, 318);</v>
       </c>
-      <c r="O186" s="11" t="str">
+      <c r="P186" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='flint', [Name]='Flint', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 271;</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:16">
       <c r="A187" s="3">
         <v>319</v>
       </c>
@@ -11393,16 +12168,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N187" s="11" t="str">
+      <c r="N187" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(319, "rawporkchop", "Raw Porkchop", 1, 64, 4);</v>
+      </c>
+      <c r="O187" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('rawporkchop', 'Raw Porkchop', 1, 64, 4, 319);</v>
       </c>
-      <c r="O187" s="11" t="str">
+      <c r="P187" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='rawporkchop', [Name]='Raw Porkchop', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 272;</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:16">
       <c r="A188" s="3">
         <v>320</v>
       </c>
@@ -11443,16 +12222,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N188" s="11" t="str">
+      <c r="N188" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(320, "cookedporkchop", "Cooked Porkchop", 1, 64, 4);</v>
+      </c>
+      <c r="O188" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cookedporkchop', 'Cooked Porkchop', 1, 64, 4, 320);</v>
       </c>
-      <c r="O188" s="11" t="str">
+      <c r="P188" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cookedporkchop', [Name]='Cooked Porkchop', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 273;</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:16" hidden="1">
       <c r="A189">
         <v>321</v>
       </c>
@@ -11488,16 +12271,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N189" s="1" t="str">
+      <c r="N189" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(321, "paintings", "Paintings", 1, 64, );</v>
+      </c>
+      <c r="O189" s="1" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('paintings', 'Paintings', 1, 64, , 321);</v>
       </c>
-      <c r="O189" s="1" t="str">
+      <c r="P189" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='paintings', [Name]='Paintings', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 274;</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:16">
       <c r="A190" s="3">
         <v>322</v>
       </c>
@@ -11538,16 +12325,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N190" s="11" t="str">
+      <c r="N190" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(322, "goldenapple", "Golden Apple", 1, 64, 4);</v>
+      </c>
+      <c r="O190" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldenapple', 'Golden Apple', 1, 64, 4, 322);</v>
       </c>
-      <c r="O190" s="11" t="str">
+      <c r="P190" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldenapple', [Name]='Golden Apple', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 275;</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:16">
       <c r="A191" s="3">
         <v>323</v>
       </c>
@@ -11588,16 +12379,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N191" s="11" t="str">
+      <c r="N191" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(323, "sign", "Sign", 1, 64, 4);</v>
+      </c>
+      <c r="O191" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sign', 'Sign', 1, 64, 4, 323);</v>
       </c>
-      <c r="O191" s="11" t="str">
+      <c r="P191" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sign', [Name]='Sign', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 276;</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:16">
       <c r="A192" s="3">
         <v>324</v>
       </c>
@@ -11638,16 +12433,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N192" s="11" t="str">
+      <c r="N192" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(324, "woodendoor", "Wooden Door", 1, 64, 4);</v>
+      </c>
+      <c r="O192" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('woodendoor', 'Wooden Door', 1, 64, 4, 324);</v>
       </c>
-      <c r="O192" s="11" t="str">
+      <c r="P192" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='woodendoor', [Name]='Wooden Door', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 277;</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:16">
       <c r="A193" s="3">
         <v>325</v>
       </c>
@@ -11688,16 +12487,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N193" s="11" t="str">
+      <c r="N193" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(325, "bucket", "Bucket", 1, 64, 4);</v>
+      </c>
+      <c r="O193" s="11" t="str">
         <f t="shared" si="5"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bucket', 'Bucket', 1, 64, 4, 325);</v>
       </c>
-      <c r="O193" s="11" t="str">
+      <c r="P193" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bucket', [Name]='Bucket', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 278;</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:16">
       <c r="A194" s="7">
         <v>326</v>
       </c>
@@ -11742,16 +12545,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N194" s="15" t="str">
-        <f t="shared" ref="N194:N261" si="7">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B194, "', '", C194, "', ", D194, ", ", E194, ", ", F194, ", ", A194, ");")</f>
+      <c r="N194" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(326, "waterbucket", "Water Bucket", 1, 64, 5);</v>
+      </c>
+      <c r="O194" s="15" t="str">
+        <f t="shared" ref="O194:O261" si="7">CONCATENATE("INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('", B194, "', '", C194, "', ", D194, ", ", E194, ", ", F194, ", ", A194, ");")</f>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('waterbucket', 'Water Bucket', 1, 64, 5, 326);</v>
       </c>
-      <c r="O194" s="15" t="str">
+      <c r="P194" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='waterbucket', [Name]='Water Bucket', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 279;</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:16">
       <c r="A195" s="7">
         <v>327</v>
       </c>
@@ -11796,16 +12603,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N195" s="15" t="str">
+      <c r="N195" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(327, "lavabucket", "Lava Bucket", 1, 64, 5);</v>
+      </c>
+      <c r="O195" s="15" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('lavabucket', 'Lava Bucket', 1, 64, 5, 327);</v>
       </c>
-      <c r="O195" s="15" t="str">
+      <c r="P195" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='lavabucket', [Name]='Lava Bucket', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 280;</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:16">
       <c r="A196" s="3">
         <v>328</v>
       </c>
@@ -11846,16 +12657,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N196" s="11" t="str">
+      <c r="N196" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(328, "minecart", "Minecart", 1, 64, 4);</v>
+      </c>
+      <c r="O196" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('minecart', 'Minecart', 1, 64, 4, 328);</v>
       </c>
-      <c r="O196" s="11" t="str">
+      <c r="P196" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='minecart', [Name]='Minecart', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 281;</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:16" hidden="1">
       <c r="A197">
         <v>329</v>
       </c>
@@ -11891,16 +12706,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N197" s="1" t="str">
+      <c r="N197" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(329, "saddle", "Saddle", 1, 64, );</v>
+      </c>
+      <c r="O197" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('saddle', 'Saddle', 1, 64, , 329);</v>
       </c>
-      <c r="O197" s="1" t="str">
+      <c r="P197" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='saddle', [Name]='Saddle', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 282;</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:16">
       <c r="A198" s="3">
         <v>330</v>
       </c>
@@ -11941,16 +12760,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N198" s="11" t="str">
+      <c r="N198" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(330, "irondoor", "Iron door", 1, 64, 4);</v>
+      </c>
+      <c r="O198" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('irondoor', 'Iron door', 1, 64, 4, 330);</v>
       </c>
-      <c r="O198" s="11" t="str">
+      <c r="P198" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='irondoor', [Name]='Iron door', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 283;</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:16">
       <c r="A199" s="3">
         <v>331</v>
       </c>
@@ -11991,16 +12814,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N199" s="11" t="str">
+      <c r="N199" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(331, "redstonedust", "Redstone (dust)", 64, 256, 4);</v>
+      </c>
+      <c r="O199" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstonedust', 'Redstone (dust)', 64, 256, 4, 331);</v>
       </c>
-      <c r="O199" s="11" t="str">
+      <c r="P199" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstonedust', [Name]='Redstone (dust)', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 284;</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:16">
       <c r="A200" s="3">
         <v>332</v>
       </c>
@@ -12041,16 +12868,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N200" s="11" t="str">
+      <c r="N200" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(332, "snowball", "Snowball", 1, 64, 4);</v>
+      </c>
+      <c r="O200" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('snowball', 'Snowball', 1, 64, 4, 332);</v>
       </c>
-      <c r="O200" s="11" t="str">
+      <c r="P200" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='snowball', [Name]='Snowball', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 285;</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:16">
       <c r="A201" s="3">
         <v>333</v>
       </c>
@@ -12091,16 +12922,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N201" s="11" t="str">
+      <c r="N201" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(333, "boat", "Boat", 1, 64, 4);</v>
+      </c>
+      <c r="O201" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('boat', 'Boat', 1, 64, 4, 333);</v>
       </c>
-      <c r="O201" s="11" t="str">
+      <c r="P201" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='boat', [Name]='Boat', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 286;</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:16">
       <c r="A202" s="3">
         <v>334</v>
       </c>
@@ -12141,16 +12976,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N202" s="11" t="str">
+      <c r="N202" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(334, "leather", "Leather", 1, 64, 4);</v>
+      </c>
+      <c r="O202" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('leather', 'Leather', 1, 64, 4, 334);</v>
       </c>
-      <c r="O202" s="11" t="str">
+      <c r="P202" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='leather', [Name]='Leather', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 287;</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:16" hidden="1">
       <c r="A203">
         <v>335</v>
       </c>
@@ -12186,16 +13025,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N203" s="1" t="str">
+      <c r="N203" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(335, "milk", "Milk", 1, 64, );</v>
+      </c>
+      <c r="O203" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('milk', 'Milk', 1, 64, , 335);</v>
       </c>
-      <c r="O203" s="1" t="str">
+      <c r="P203" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='milk', [Name]='Milk', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 288;</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:16">
       <c r="A204" s="3">
         <v>336</v>
       </c>
@@ -12236,16 +13079,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="str">
+      <c r="N204" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(336, "claybrick", "Clay Brick", 1, 64, 4);</v>
+      </c>
+      <c r="O204" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('claybrick', 'Clay Brick', 1, 64, 4, 336);</v>
       </c>
-      <c r="O204" s="11" t="str">
+      <c r="P204" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='claybrick', [Name]='Clay Brick', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 289;</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:16">
       <c r="A205" s="3">
         <v>337</v>
       </c>
@@ -12286,16 +13133,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N205" s="11" t="str">
+      <c r="N205" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(337, "clay", "Clay", 1, 64, 4);</v>
+      </c>
+      <c r="O205" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('clay', 'Clay', 1, 64, 4, 337);</v>
       </c>
-      <c r="O205" s="11" t="str">
+      <c r="P205" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='clay', [Name]='Clay', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 290;</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:16">
       <c r="A206" s="3">
         <v>338</v>
       </c>
@@ -12336,16 +13187,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N206" s="11" t="str">
+      <c r="N206" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(338, "sugarcane", "Sugar Cane", 1, 64, 4);</v>
+      </c>
+      <c r="O206" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sugarcane', 'Sugar Cane', 1, 64, 4, 338);</v>
       </c>
-      <c r="O206" s="11" t="str">
+      <c r="P206" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sugarcane', [Name]='Sugar Cane', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 291;</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:16" hidden="1">
       <c r="A207">
         <v>339</v>
       </c>
@@ -12381,16 +13236,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N207" s="1" t="str">
+      <c r="N207" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(339, "paper", "Paper", 1, 64, );</v>
+      </c>
+      <c r="O207" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('paper', 'Paper', 1, 64, , 339);</v>
       </c>
-      <c r="O207" s="1" t="str">
+      <c r="P207" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='paper', [Name]='Paper', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 292;</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:16" hidden="1">
       <c r="A208">
         <v>340</v>
       </c>
@@ -12426,16 +13285,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N208" s="1" t="str">
+      <c r="N208" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(340, "book", "Book", 1, 64, );</v>
+      </c>
+      <c r="O208" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('book', 'Book', 1, 64, , 340);</v>
       </c>
-      <c r="O208" s="1" t="str">
+      <c r="P208" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='book', [Name]='Book', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 293;</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:16">
       <c r="A209" s="3">
         <v>341</v>
       </c>
@@ -12476,16 +13339,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N209" s="11" t="str">
+      <c r="N209" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(341, "slimeball", "Slimeball", 1, 64, 4);</v>
+      </c>
+      <c r="O209" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('slimeball', 'Slimeball', 1, 64, 4, 341);</v>
       </c>
-      <c r="O209" s="11" t="str">
+      <c r="P209" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='slimeball', [Name]='Slimeball', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 294;</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:16">
       <c r="A210" s="3">
         <v>342</v>
       </c>
@@ -12526,16 +13393,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N210" s="11" t="str">
+      <c r="N210" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(342, "storageminecart", "Storage Minecart", 1, 64, 4);</v>
+      </c>
+      <c r="O210" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('storageminecart', 'Storage Minecart', 1, 64, 4, 342);</v>
       </c>
-      <c r="O210" s="11" t="str">
+      <c r="P210" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='storageminecart', [Name]='Storage Minecart', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 295;</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:16">
       <c r="A211" s="3">
         <v>343</v>
       </c>
@@ -12576,16 +13447,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N211" s="11" t="str">
+      <c r="N211" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(343, "poweredminecart", "Powered Minecart", 1, 64, 4);</v>
+      </c>
+      <c r="O211" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('poweredminecart', 'Powered Minecart', 1, 64, 4, 343);</v>
       </c>
-      <c r="O211" s="11" t="str">
+      <c r="P211" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='poweredminecart', [Name]='Powered Minecart', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 296;</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:16">
       <c r="A212" s="3">
         <v>344</v>
       </c>
@@ -12626,16 +13501,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N212" s="11" t="str">
+      <c r="N212" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(344, "egg", "Egg", 1, 64, 4);</v>
+      </c>
+      <c r="O212" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('egg', 'Egg', 1, 64, 4, 344);</v>
       </c>
-      <c r="O212" s="11" t="str">
+      <c r="P212" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='egg', [Name]='Egg', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 297;</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:16">
       <c r="A213" s="3">
         <v>345</v>
       </c>
@@ -12676,16 +13555,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N213" s="11" t="str">
+      <c r="N213" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(345, "compass", "Compass", 1, 64, 4);</v>
+      </c>
+      <c r="O213" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('compass', 'Compass', 1, 64, 4, 345);</v>
       </c>
-      <c r="O213" s="11" t="str">
+      <c r="P213" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='compass', [Name]='Compass', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 298;</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:16">
       <c r="A214" s="3">
         <v>346</v>
       </c>
@@ -12726,16 +13609,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N214" s="11" t="str">
+      <c r="N214" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(346, "fishingrod", "Fishing Rod", 1, 64, 4);</v>
+      </c>
+      <c r="O214" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('fishingrod', 'Fishing Rod', 1, 64, 4, 346);</v>
       </c>
-      <c r="O214" s="11" t="str">
+      <c r="P214" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='fishingrod', [Name]='Fishing Rod', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 299;</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:16" hidden="1">
       <c r="A215">
         <v>347</v>
       </c>
@@ -12771,16 +13658,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="str">
+      <c r="N215" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(347, "clock", "Clock", 1, 64, );</v>
+      </c>
+      <c r="O215" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('clock', 'Clock', 1, 64, , 347);</v>
       </c>
-      <c r="O215" s="1" t="str">
+      <c r="P215" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='clock', [Name]='Clock', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 300;</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:16">
       <c r="A216" s="3">
         <v>348</v>
       </c>
@@ -12821,16 +13712,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N216" s="11" t="str">
+      <c r="N216" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(348, "glowstonedust", "Glowstone (Dust)", 1, 64, 4);</v>
+      </c>
+      <c r="O216" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('glowstonedust', 'Glowstone (Dust)', 1, 64, 4, 348);</v>
       </c>
-      <c r="O216" s="11" t="str">
+      <c r="P216" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='glowstonedust', [Name]='Glowstone (Dust)', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 301;</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:16">
       <c r="A217" s="3">
         <v>349</v>
       </c>
@@ -12871,16 +13766,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N217" s="11" t="str">
+      <c r="N217" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(349, "fish", "Fish", 1, 64, 4);</v>
+      </c>
+      <c r="O217" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('fish', 'Fish', 1, 64, 4, 349);</v>
       </c>
-      <c r="O217" s="11" t="str">
+      <c r="P217" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='fish', [Name]='Fish', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 302;</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:16">
       <c r="A218" s="3">
         <v>350</v>
       </c>
@@ -12921,16 +13820,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N218" s="11" t="str">
+      <c r="N218" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(350, "cookedfish", "Cooked Fish", 1, 64, 4);</v>
+      </c>
+      <c r="O218" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cookedfish', 'Cooked Fish', 1, 64, 4, 350);</v>
       </c>
-      <c r="O218" s="11" t="str">
+      <c r="P218" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cookedfish', [Name]='Cooked Fish', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 303;</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:16">
       <c r="A219" s="3">
         <v>351</v>
       </c>
@@ -12971,16 +13874,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N219" s="11" t="str">
+      <c r="N219" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(351, "dye", "Dye", 1, 64, 4);</v>
+      </c>
+      <c r="O219" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('dye', 'Dye', 1, 64, 4, 351);</v>
       </c>
-      <c r="O219" s="11" t="str">
+      <c r="P219" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='dye', [Name]='Dye', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 304;</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:16">
       <c r="A220" s="3">
         <v>352</v>
       </c>
@@ -13021,16 +13928,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N220" s="11" t="str">
+      <c r="N220" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(352, "bone", "Bone", 1, 64, 4);</v>
+      </c>
+      <c r="O220" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bone', 'Bone', 1, 64, 4, 352);</v>
       </c>
-      <c r="O220" s="11" t="str">
+      <c r="P220" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bone', [Name]='Bone', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 305;</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:16" hidden="1">
       <c r="A221">
         <v>353</v>
       </c>
@@ -13066,16 +13977,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N221" s="1" t="str">
+      <c r="N221" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(353, "sugar", "Sugar", 1, 64, );</v>
+      </c>
+      <c r="O221" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('sugar', 'Sugar', 1, 64, , 353);</v>
       </c>
-      <c r="O221" s="1" t="str">
+      <c r="P221" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='sugar', [Name]='Sugar', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]= WHERE Item_ID = 306;</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:16">
       <c r="A222" s="3">
         <v>354</v>
       </c>
@@ -13116,16 +14031,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N222" s="11" t="str">
+      <c r="N222" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(354, "cake", "Cake", 1, 64, 4);</v>
+      </c>
+      <c r="O222" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cake', 'Cake', 1, 64, 4, 354);</v>
       </c>
-      <c r="O222" s="11" t="str">
+      <c r="P222" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cake', [Name]='Cake', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 307;</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:16">
       <c r="A223" s="3">
         <v>355</v>
       </c>
@@ -13166,16 +14085,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N223" s="11" t="str">
+      <c r="N223" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(355, "bed", "Bed", 1, 64, 4);</v>
+      </c>
+      <c r="O223" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('bed', 'Bed', 1, 64, 4, 355);</v>
       </c>
-      <c r="O223" s="11" t="str">
+      <c r="P223" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='bed', [Name]='Bed', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 308;</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:16">
       <c r="A224" s="3">
         <v>356</v>
       </c>
@@ -13216,16 +14139,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N224" s="11" t="str">
+      <c r="N224" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(356, "redstonerepeater", "Redstone Repeater", 1, 64, 4);</v>
+      </c>
+      <c r="O224" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('redstonerepeater', 'Redstone Repeater', 1, 64, 4, 356);</v>
       </c>
-      <c r="O224" s="11" t="str">
+      <c r="P224" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='redstonerepeater', [Name]='Redstone Repeater', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 309;</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:16">
       <c r="A225" s="3">
         <v>357</v>
       </c>
@@ -13266,16 +14193,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N225" s="11" t="str">
+      <c r="N225" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(357, "cookie", "Cookie", 1, 64, 4);</v>
+      </c>
+      <c r="O225" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cookie', 'Cookie', 1, 64, 4, 357);</v>
       </c>
-      <c r="O225" s="11" t="str">
+      <c r="P225" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cookie', [Name]='Cookie', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 310;</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:16" hidden="1">
       <c r="A226">
         <v>358</v>
       </c>
@@ -13302,16 +14233,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N226" s="1" t="str">
+      <c r="N226" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(358, "map", "", , , );</v>
+      </c>
+      <c r="O226" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('map', '', , , , 358);</v>
       </c>
-      <c r="O226" s="1" t="str">
+      <c r="P226" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='map', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:16">
       <c r="A227" s="3">
         <v>359</v>
       </c>
@@ -13352,16 +14287,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N227" s="11" t="str">
+      <c r="N227" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(359, "shears", "Shears", 64, 256, 4);</v>
+      </c>
+      <c r="O227" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('shears', 'Shears', 64, 256, 4, 359);</v>
       </c>
-      <c r="O227" s="11" t="str">
+      <c r="P227" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='shears', [Name]='Shears', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 343;</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:16">
       <c r="A228" s="3">
         <v>360</v>
       </c>
@@ -13400,16 +14339,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N228" s="11" t="str">
+      <c r="N228" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(360, "melonslice", "", 64, 256, 4);</v>
+      </c>
+      <c r="O228" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('melonslice', '', 64, 256, 4, 360);</v>
       </c>
-      <c r="O228" s="11" t="str">
+      <c r="P228" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='melonslice', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 366;</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:16">
       <c r="A229" s="3">
         <v>361</v>
       </c>
@@ -13448,16 +14391,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N229" s="11" t="str">
+      <c r="N229" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(361, "pumpkinseeds", "", 64, 256, 4);</v>
+      </c>
+      <c r="O229" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('pumpkinseeds', '', 64, 256, 4, 361);</v>
       </c>
-      <c r="O229" s="11" t="str">
+      <c r="P229" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='pumpkinseeds', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 344;</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:16">
       <c r="A230" s="3">
         <v>362</v>
       </c>
@@ -13496,16 +14443,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N230" s="11" t="str">
+      <c r="N230" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(362, "melonseeds", "", 64, 256, 4);</v>
+      </c>
+      <c r="O230" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('melonseeds', '', 64, 256, 4, 362);</v>
       </c>
-      <c r="O230" s="11" t="str">
+      <c r="P230" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='melonseeds', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 365;</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:16">
       <c r="A231" s="3">
         <v>363</v>
       </c>
@@ -13544,16 +14495,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N231" s="11" t="str">
+      <c r="N231" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(363, "rawbeef", "", 64, 256, 4);</v>
+      </c>
+      <c r="O231" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('rawbeef', '', 64, 256, 4, 363);</v>
       </c>
-      <c r="O231" s="11" t="str">
+      <c r="P231" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='rawbeef', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 345;</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:16">
       <c r="A232" s="3">
         <v>364</v>
       </c>
@@ -13594,16 +14549,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N232" s="11" t="str">
+      <c r="N232" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(364, "steak", "Steak", 64, 64, 4);</v>
+      </c>
+      <c r="O232" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('steak', 'Steak', 64, 64, 4, 364);</v>
       </c>
-      <c r="O232" s="11" t="str">
+      <c r="P232" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='steak', [Name]='Steak', [Stack_Size]=64, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 346;</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:16">
       <c r="A233" s="3">
         <v>365</v>
       </c>
@@ -13642,16 +14601,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N233" s="11" t="str">
+      <c r="N233" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(365, "rawchicken", "", 64, 256, 4);</v>
+      </c>
+      <c r="O233" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('rawchicken', '', 64, 256, 4, 365);</v>
       </c>
-      <c r="O233" s="11" t="str">
+      <c r="P233" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='rawchicken', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 347;</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:16">
       <c r="A234" s="3">
         <v>366</v>
       </c>
@@ -13692,16 +14655,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N234" s="11" t="str">
+      <c r="N234" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(366, "cookedchicken", "Cooked Chicken", 64, 256, 4);</v>
+      </c>
+      <c r="O234" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cookedchicken', 'Cooked Chicken', 64, 256, 4, 366);</v>
       </c>
-      <c r="O234" s="11" t="str">
+      <c r="P234" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cookedchicken', [Name]='Cooked Chicken', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 358;</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:16">
       <c r="A235" s="3">
         <v>367</v>
       </c>
@@ -13740,16 +14707,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N235" s="11" t="str">
+      <c r="N235" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(367, "rottenflesh", "", 64, 256, 4);</v>
+      </c>
+      <c r="O235" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('rottenflesh', '', 64, 256, 4, 367);</v>
       </c>
-      <c r="O235" s="11" t="str">
+      <c r="P235" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='rottenflesh', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 348;</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:16">
       <c r="A236" s="3">
         <v>368</v>
       </c>
@@ -13788,16 +14759,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N236" s="11" t="str">
+      <c r="N236" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(368, "enderpearl", "", 64, 256, 4);</v>
+      </c>
+      <c r="O236" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('enderpearl', '', 64, 256, 4, 368);</v>
       </c>
-      <c r="O236" s="11" t="str">
+      <c r="P236" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='enderpearl', [Name]='', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 361;</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:16" hidden="1">
       <c r="A237">
         <v>369</v>
       </c>
@@ -13827,16 +14802,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N237" s="1" t="str">
+      <c r="N237" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(369, "blazerod", "Blaze Rod", , , );</v>
+      </c>
+      <c r="O237" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('blazerod', 'Blaze Rod', , , , 369);</v>
       </c>
-      <c r="O237" s="1" t="str">
+      <c r="P237" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='blazerod', [Name]='Blaze Rod', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:16" hidden="1">
       <c r="A238">
         <v>370</v>
       </c>
@@ -13863,16 +14842,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N238" s="1" t="str">
+      <c r="N238" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(370, "ghasttear", "", , , );</v>
+      </c>
+      <c r="O238" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('ghasttear', '', , , , 370);</v>
       </c>
-      <c r="O238" s="1" t="str">
+      <c r="P238" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='ghasttear', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:16">
       <c r="A239" s="3">
         <v>371</v>
       </c>
@@ -13913,16 +14896,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N239" s="11" t="str">
+      <c r="N239" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(371, "goldnugget", "Gold Nugget", 64, 256, 4);</v>
+      </c>
+      <c r="O239" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldnugget', 'Gold Nugget', 64, 256, 4, 371);</v>
       </c>
-      <c r="O239" s="11" t="str">
+      <c r="P239" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldnugget', [Name]='Gold Nugget', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 349;</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:16" hidden="1">
       <c r="A240">
         <v>372</v>
       </c>
@@ -13949,16 +14936,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N240" s="1" t="str">
+      <c r="N240" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(372, "netherwart", "", , , );</v>
+      </c>
+      <c r="O240" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('netherwart', '', , , , 372);</v>
       </c>
-      <c r="O240" s="1" t="str">
+      <c r="P240" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='netherwart', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:16">
       <c r="A241" s="5">
         <v>373</v>
       </c>
@@ -13997,16 +14988,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>1</v>
       </c>
-      <c r="N241" s="13" t="str">
+      <c r="N241" s="18" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(373, "potions", "", 1, 64, 6);</v>
+      </c>
+      <c r="O241" s="13" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('potions', '', 1, 64, 6, 373);</v>
       </c>
-      <c r="O241" s="13" t="str">
+      <c r="P241" s="13" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='potions', [Name]='', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=6 WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:16" hidden="1">
       <c r="A242">
         <v>374</v>
       </c>
@@ -14033,16 +15028,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N242" s="1" t="str">
+      <c r="N242" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(374, "glassbottle", "", , , );</v>
+      </c>
+      <c r="O242" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('glassbottle', '', , , , 374);</v>
       </c>
-      <c r="O242" s="1" t="str">
+      <c r="P242" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='glassbottle', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:16">
       <c r="A243" s="3">
         <v>375</v>
       </c>
@@ -14083,16 +15082,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N243" s="11" t="str">
+      <c r="N243" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(375, "spidereye", "Spider Eye", 64, 256, 4);</v>
+      </c>
+      <c r="O243" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('spidereye', 'Spider Eye', 64, 256, 4, 375);</v>
       </c>
-      <c r="O243" s="11" t="str">
+      <c r="P243" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='spidereye', [Name]='Spider Eye', [Stack_Size]=64, [Max]=256, [Min_Rank_ID]=4 WHERE Item_ID = 350;</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:16" hidden="1">
       <c r="A244">
         <v>376</v>
       </c>
@@ -14119,16 +15122,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N244" s="1" t="str">
+      <c r="N244" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(376, "fermentedspidereye", "", , , );</v>
+      </c>
+      <c r="O244" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('fermentedspidereye', '', , , , 376);</v>
       </c>
-      <c r="O244" s="1" t="str">
+      <c r="P244" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='fermentedspidereye', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:16" hidden="1">
       <c r="A245">
         <v>377</v>
       </c>
@@ -14158,16 +15165,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N245" s="1" t="str">
+      <c r="N245" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(377, "blazepowder", "Blaze Powder", , , );</v>
+      </c>
+      <c r="O245" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('blazepowder', 'Blaze Powder', , , , 377);</v>
       </c>
-      <c r="O245" s="1" t="str">
+      <c r="P245" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='blazepowder', [Name]='Blaze Powder', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:16" hidden="1">
       <c r="A246">
         <v>378</v>
       </c>
@@ -14194,16 +15205,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N246" s="1" t="str">
+      <c r="N246" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(378, "magmacream", "", , , );</v>
+      </c>
+      <c r="O246" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('magmacream', '', , , , 378);</v>
       </c>
-      <c r="O246" s="1" t="str">
+      <c r="P246" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='magmacream', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:16" hidden="1">
       <c r="A247">
         <v>379</v>
       </c>
@@ -14233,16 +15248,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N247" s="1" t="str">
+      <c r="N247" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(379, "brewingstand", "Brewing Stand", , , );</v>
+      </c>
+      <c r="O247" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('brewingstand', 'Brewing Stand', , , , 379);</v>
       </c>
-      <c r="O247" s="1" t="str">
+      <c r="P247" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='brewingstand', [Name]='Brewing Stand', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:16">
       <c r="A248" s="3">
         <v>380</v>
       </c>
@@ -14283,16 +15302,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N248" s="11" t="str">
+      <c r="N248" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(380, "cauldron", "Cauldron", 1, 64, 4);</v>
+      </c>
+      <c r="O248" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('cauldron', 'Cauldron', 1, 64, 4, 380);</v>
       </c>
-      <c r="O248" s="11" t="str">
+      <c r="P248" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='cauldron', [Name]='Cauldron', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 355;</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:16">
       <c r="A249" s="7">
         <v>381</v>
       </c>
@@ -14331,16 +15354,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N249" s="15" t="str">
+      <c r="N249" s="20" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(381, "eyeofender", "", 1, 64, 5);</v>
+      </c>
+      <c r="O249" s="15" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('eyeofender', '', 1, 64, 5, 381);</v>
       </c>
-      <c r="O249" s="15" t="str">
+      <c r="P249" s="15" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='eyeofender', [Name]='', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=5 WHERE Item_ID = 351;</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:16" hidden="1">
       <c r="A250">
         <v>382</v>
       </c>
@@ -14367,16 +15394,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N250" s="1" t="str">
+      <c r="N250" s="21" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(382, "glisteningmelon", "", , , );</v>
+      </c>
+      <c r="O250" s="1" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('glisteningmelon', '', , , , 382);</v>
       </c>
-      <c r="O250" s="1" t="str">
+      <c r="P250" s="1" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='glisteningmelon', [Name]='', [Stack_Size]=, [Max]=, [Min_Rank_ID]= WHERE Item_ID = new;</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:16">
       <c r="A251" s="3">
         <v>2256</v>
       </c>
@@ -14417,16 +15448,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N251" s="11" t="str">
+      <c r="N251" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2256, "goldmusicdisc", "Gold Music Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O251" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('goldmusicdisc', 'Gold Music Disc', 1, 64, 4, 2256);</v>
       </c>
-      <c r="O251" s="11" t="str">
+      <c r="P251" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='goldmusicdisc', [Name]='Gold Music Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 311;</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:16">
       <c r="A252" s="3">
         <v>2257</v>
       </c>
@@ -14467,16 +15502,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N252" s="11" t="str">
+      <c r="N252" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2257, "greenmusicdisc", "Green Music Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O252" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('greenmusicdisc', 'Green Music Disc', 1, 64, 4, 2257);</v>
       </c>
-      <c r="O252" s="11" t="str">
+      <c r="P252" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='greenmusicdisc', [Name]='Green Music Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 312;</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:16">
       <c r="A253" s="3">
         <v>2258</v>
       </c>
@@ -14519,16 +15558,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N253" s="11" t="str">
+      <c r="N253" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2258, "blocksdisc", "Blocks Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O253" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('blocksdisc', 'Blocks Disc', 1, 64, 4, 2258);</v>
       </c>
-      <c r="O253" s="11" t="str">
+      <c r="P253" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='blocksdisc', [Name]='Blocks Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 354;</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:16">
       <c r="A254" s="3">
         <v>2259</v>
       </c>
@@ -14571,16 +15614,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N254" s="11" t="str">
+      <c r="N254" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2259, "chirpdisc", "Chirp Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O254" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('chirpdisc', 'Chirp Disc', 1, 64, 4, 2259);</v>
       </c>
-      <c r="O254" s="11" t="str">
+      <c r="P254" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='chirpdisc', [Name]='Chirp Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 356;</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:16">
       <c r="A255" s="3">
         <v>2260</v>
       </c>
@@ -14621,16 +15668,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N255" s="11" t="str">
+      <c r="N255" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2260, "fardisc", "", 1, 64, 4);</v>
+      </c>
+      <c r="O255" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('fardisc', '', 1, 64, 4, 2260);</v>
       </c>
-      <c r="O255" s="11" t="str">
+      <c r="P255" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='fardisc', [Name]='', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 362;</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:16">
       <c r="A256" s="3">
         <v>2261</v>
       </c>
@@ -14673,16 +15724,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N256" s="11" t="str">
+      <c r="N256" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2261, "malldisc", "Mall Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O256" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('malldisc', 'Mall Disc', 1, 64, 4, 2261);</v>
       </c>
-      <c r="O256" s="11" t="str">
+      <c r="P256" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='malldisc', [Name]='Mall Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 363;</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:16">
       <c r="A257" s="3">
         <v>2262</v>
       </c>
@@ -14725,16 +15780,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N257" s="11" t="str">
+      <c r="N257" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2262, "mellohidisc", "Mellohi Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O257" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('mellohidisc', 'Mellohi Disc', 1, 64, 4, 2262);</v>
       </c>
-      <c r="O257" s="11" t="str">
+      <c r="P257" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='mellohidisc', [Name]='Mellohi Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 364;</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:16">
       <c r="A258" s="3">
         <v>2263</v>
       </c>
@@ -14777,16 +15836,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N258" s="11" t="str">
+      <c r="N258" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2263, "staldisc", "Stal Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O258" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('staldisc', 'Stal Disc', 1, 64, 4, 2263);</v>
       </c>
-      <c r="O258" s="11" t="str">
+      <c r="P258" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='staldisc', [Name]='Stal Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 371;</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:16">
       <c r="A259" s="3">
         <v>2264</v>
       </c>
@@ -14829,16 +15892,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N259" s="11" t="str">
+      <c r="N259" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2264, "straddisc", "Strad Disc", 64, 64, 4);</v>
+      </c>
+      <c r="O259" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('straddisc', 'Strad Disc', 64, 64, 4, 2264);</v>
       </c>
-      <c r="O259" s="11" t="str">
+      <c r="P259" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='straddisc', [Name]='Strad Disc', [Stack_Size]=64, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 352;</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:16">
       <c r="A260" s="3">
         <v>2265</v>
       </c>
@@ -14881,16 +15948,20 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N260" s="11" t="str">
+      <c r="N260" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2265, "warddisc", "Ward Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O260" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('warddisc', 'Ward Disc', 1, 64, 4, 2265);</v>
       </c>
-      <c r="O260" s="11" t="str">
+      <c r="P260" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='warddisc', [Name]='Ward Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 373;</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:16">
       <c r="A261" s="3">
         <v>2266</v>
       </c>
@@ -14933,11 +16004,15 @@
         <f>IFERROR(INDEX(DBData!$A:$G, MATCH(Table1[[#This Row],[Block_Decimal_ID]], DBData!$G:$G, 0), MATCH("Stack_Size", DBData!$1:$1, 0)), 0) &lt;&gt; Table1[[#This Row],[Stack_Size]]</f>
         <v>0</v>
       </c>
-      <c r="N261" s="11" t="str">
+      <c r="N261" s="19" t="str">
+        <f>CONCATENATE("InsertItem(", Table1[[#This Row],[Block_Decimal_ID]], ", """, Table1[[#This Row],[Code]], """, """, SUBSTITUTE( Table1[[#This Row],[Name]],"""", "\"""), """, ", Table1[[#This Row],[Stack_Size]], ", ", Table1[[#This Row],[Max]], ", ", Table1[[#This Row],[Min_Rank_ID]], ");")</f>
+        <v>InsertItem(2266, "11disc", "11 Disc", 1, 64, 4);</v>
+      </c>
+      <c r="O261" s="11" t="str">
         <f t="shared" si="7"/>
         <v>INSERT INTO Items ([Code], [Name], [Stack_Size], [Max], [Min_Rank_ID], [Block_Decimal_ID]) VALUES ('11disc', '11 Disc', 1, 64, 4, 2266);</v>
       </c>
-      <c r="O261" s="11" t="str">
+      <c r="P261" s="11" t="str">
         <f>CONCATENATE("UPDATE Items SET [Code]='", Table1[[#This Row],[Code]], "', [Name]='", Table1[[#This Row],[Name]], "', [Stack_Size]=", Table1[[#This Row],[Stack_Size]], ", [Max]=",Table1[[#This Row],[Max]],", [Min_Rank_ID]=",Table1[[#This Row],[Min_Rank_ID]]," WHERE Item_ID = ", Table1[[#This Row],[Item_ID]], ";")</f>
         <v>UPDATE Items SET [Code]='11disc', [Name]='11 Disc', [Stack_Size]=1, [Max]=64, [Min_Rank_ID]=4 WHERE Item_ID = 353;</v>
       </c>
